--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>Index</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>System Off</t>
-  </si>
-  <si>
-    <t>Increase Thermal Production (increase fan_power)</t>
   </si>
 </sst>
 </file>
@@ -854,7 +851,7 @@
         <v>0.19</v>
       </c>
       <c r="L10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -898,7 +895,7 @@
         <v>0.2</v>
       </c>
       <c r="L11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -942,7 +939,7 @@
         <v>0.2</v>
       </c>
       <c r="L12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -986,7 +983,7 @@
         <v>0.17</v>
       </c>
       <c r="L13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -1030,7 +1027,7 @@
         <v>0.11</v>
       </c>
       <c r="L14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -1074,7 +1071,7 @@
         <v>0.02</v>
       </c>
       <c r="L15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M15">
         <v>1</v>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -830,25 +830,25 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.9</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F10">
         <v>594</v>
       </c>
       <c r="G10">
-        <v>463.42</v>
+        <v>-77.22</v>
       </c>
       <c r="H10">
-        <v>9.038038375901294</v>
+        <v>-1.263800195015449</v>
       </c>
       <c r="I10">
-        <v>75.1961981462664</v>
+        <v>69.85645748820389</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.19</v>
+        <v>-0.03</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -874,25 +874,25 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.98</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F11">
         <v>602</v>
       </c>
       <c r="G11">
-        <v>470.06</v>
+        <v>-77.84999999999999</v>
       </c>
       <c r="H11">
-        <v>9.963588420820088</v>
+        <v>-0.4771398042572628</v>
       </c>
       <c r="I11">
-        <v>75.73501523426967</v>
+        <v>70.30362842435716</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -918,25 +918,25 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>9.09</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F12">
         <v>614</v>
       </c>
       <c r="G12">
-        <v>480.12</v>
+        <v>-78.55</v>
       </c>
       <c r="H12">
-        <v>10.55336407969622</v>
+        <v>-0.09588297043063676</v>
       </c>
       <c r="I12">
-        <v>76.07276696851476</v>
+        <v>70.52162321400827</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>-0.03</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -962,25 +962,25 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.75</v>
+        <v>7.46</v>
       </c>
       <c r="F13">
         <v>522</v>
       </c>
       <c r="G13">
-        <v>407.96</v>
+        <v>-67.39</v>
       </c>
       <c r="H13">
-        <v>9.793185203867267</v>
+        <v>0.7355723598356576</v>
       </c>
       <c r="I13">
-        <v>75.70516509923618</v>
+        <v>70.98216910695191</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1006,25 +1006,25 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.79</v>
+        <v>4.67</v>
       </c>
       <c r="F14">
         <v>320</v>
       </c>
       <c r="G14">
-        <v>249.7</v>
+        <v>-42.25</v>
       </c>
       <c r="H14">
-        <v>7.304037140469404</v>
+        <v>1.746205523641038</v>
       </c>
       <c r="I14">
-        <v>74.42060444317758</v>
+        <v>71.5305090919137</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.11</v>
+        <v>-0.02</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -1050,25 +1050,25 @@
         <v>3.1</v>
       </c>
       <c r="E15">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="F15">
         <v>57</v>
       </c>
       <c r="G15">
-        <v>44.61</v>
+        <v>-7.52</v>
       </c>
       <c r="H15">
-        <v>4.018826999725093</v>
+        <v>3.027231892662087</v>
       </c>
       <c r="I15">
-        <v>72.74050571763655</v>
+        <v>72.22680880327243</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>0.02</v>
+        <v>-0</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1795,25 +1795,25 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>40.35</v>
+        <v>38.83</v>
       </c>
       <c r="F32">
         <v>2709</v>
       </c>
       <c r="G32">
-        <v>2115.87</v>
+        <v>-350.78</v>
       </c>
       <c r="H32">
-        <v>69.97104022047938</v>
+        <v>22.97218680643543</v>
       </c>
       <c r="I32">
-        <v>449.8702556091012</v>
+        <v>425.4211961287074</v>
       </c>
       <c r="J32">
         <v>6</v>
       </c>
       <c r="K32">
-        <v>0.8900000000000001</v>
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -830,25 +830,25 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.550000000000001</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F10">
         <v>594</v>
       </c>
       <c r="G10">
-        <v>-77.22</v>
+        <v>468.62</v>
       </c>
       <c r="H10">
-        <v>-1.263800195015449</v>
+        <v>9.038038375901294</v>
       </c>
       <c r="I10">
-        <v>69.85645748820389</v>
+        <v>75.1961981462664</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>-0.03</v>
+        <v>0.19</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -874,25 +874,25 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.619999999999999</v>
+        <v>8.44</v>
       </c>
       <c r="F11">
         <v>602</v>
       </c>
       <c r="G11">
-        <v>-77.84999999999999</v>
+        <v>475.46</v>
       </c>
       <c r="H11">
-        <v>-0.4771398042572628</v>
+        <v>9.963588420820088</v>
       </c>
       <c r="I11">
-        <v>70.30362842435716</v>
+        <v>75.73501523426967</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>-0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -918,25 +918,25 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>8.699999999999999</v>
+        <v>8.51</v>
       </c>
       <c r="F12">
         <v>614</v>
       </c>
       <c r="G12">
-        <v>-78.55</v>
+        <v>485.92</v>
       </c>
       <c r="H12">
-        <v>-0.09588297043063676</v>
+        <v>10.55336407969622</v>
       </c>
       <c r="I12">
-        <v>70.52162321400827</v>
+        <v>76.07276696851476</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>-0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -962,25 +962,25 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.46</v>
+        <v>7.32</v>
       </c>
       <c r="F13">
         <v>522</v>
       </c>
       <c r="G13">
-        <v>-67.39</v>
+        <v>412.26</v>
       </c>
       <c r="H13">
-        <v>0.7355723598356576</v>
+        <v>9.793185203867267</v>
       </c>
       <c r="I13">
-        <v>70.98216910695191</v>
+        <v>75.70516509923618</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>-0.03</v>
+        <v>0.17</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1006,25 +1006,25 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.67</v>
+        <v>4.62</v>
       </c>
       <c r="F14">
         <v>320</v>
       </c>
       <c r="G14">
-        <v>-42.25</v>
+        <v>251.4</v>
       </c>
       <c r="H14">
-        <v>1.746205523641038</v>
+        <v>7.304037140469404</v>
       </c>
       <c r="I14">
-        <v>71.5305090919137</v>
+        <v>74.42060444317758</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>-0.02</v>
+        <v>0.11</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -1056,19 +1056,19 @@
         <v>57</v>
       </c>
       <c r="G15">
-        <v>-7.52</v>
+        <v>44.71</v>
       </c>
       <c r="H15">
-        <v>3.027231892662087</v>
+        <v>4.018826999725093</v>
       </c>
       <c r="I15">
-        <v>72.22680880327243</v>
+        <v>72.74050571763655</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1795,25 +1795,25 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>38.83</v>
+        <v>38.09999999999999</v>
       </c>
       <c r="F32">
         <v>2709</v>
       </c>
       <c r="G32">
-        <v>-350.78</v>
+        <v>2138.37</v>
       </c>
       <c r="H32">
-        <v>22.97218680643543</v>
+        <v>69.97104022047938</v>
       </c>
       <c r="I32">
-        <v>425.4211961287074</v>
+        <v>449.8702556091012</v>
       </c>
       <c r="J32">
         <v>6</v>
       </c>
       <c r="K32">
-        <v>-0.14</v>
+        <v>0.8900000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb</t>
+    <t>Tamb [°C]</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Power [W]</t>
   </si>
   <si>
-    <t>Effective_Irradiance</t>
+    <t>Effective Irradiance [W/m^2]</t>
+  </si>
+  <si>
+    <t>Tamb</t>
   </si>
   <si>
     <t>E_sdp_eff</t>
@@ -417,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,8 +466,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,31 +490,34 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>0.2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -528,31 +537,34 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -572,31 +584,34 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>0.2</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -630,17 +645,20 @@
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -674,17 +692,20 @@
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -718,17 +739,20 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -762,17 +786,20 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -792,31 +819,34 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0.3</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -830,37 +860,40 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.380000000000001</v>
+        <v>15.84</v>
       </c>
       <c r="F10">
-        <v>594</v>
+        <v>500</v>
       </c>
       <c r="G10">
-        <v>468.62</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
-        <v>9.038038375901294</v>
+        <v>306.6</v>
       </c>
       <c r="I10">
-        <v>75.1961981462664</v>
+        <v>34.29590220707155</v>
       </c>
       <c r="J10">
+        <v>34232.17088263616</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <v>0.19</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+      <c r="L10">
+        <v>170.48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -874,37 +907,40 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.44</v>
+        <v>16.26</v>
       </c>
       <c r="F11">
-        <v>602</v>
+        <v>515</v>
       </c>
       <c r="G11">
-        <v>475.46</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>9.963588420820088</v>
+        <v>316.35</v>
       </c>
       <c r="I11">
-        <v>75.73501523426967</v>
+        <v>35.32771220135572</v>
       </c>
       <c r="J11">
+        <v>34464.17082202469</v>
+      </c>
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="K11">
-        <v>0.2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+      <c r="L11">
+        <v>171.64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -918,37 +954,40 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>8.51</v>
+        <v>17.39</v>
       </c>
       <c r="F12">
-        <v>614</v>
+        <v>552</v>
       </c>
       <c r="G12">
-        <v>485.92</v>
+        <v>1.4</v>
       </c>
       <c r="H12">
-        <v>10.55336407969622</v>
+        <v>339.46</v>
       </c>
       <c r="I12">
-        <v>76.07276696851476</v>
+        <v>35.84906035242278</v>
       </c>
       <c r="J12">
+        <v>34581.43775817618</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="K12">
-        <v>0.2</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="L12">
+        <v>172.25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -962,37 +1001,40 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.32</v>
+        <v>15.2</v>
       </c>
       <c r="F13">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="G13">
-        <v>412.26</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>9.793185203867267</v>
+        <v>297.19</v>
       </c>
       <c r="I13">
-        <v>75.70516509923618</v>
+        <v>36.61010298228854</v>
       </c>
       <c r="J13">
+        <v>34754.06949676637</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
-      <c r="K13">
-        <v>0.17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+      <c r="L13">
+        <v>173.05</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1006,37 +1048,40 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.62</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F14">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="G14">
-        <v>251.4</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
-        <v>7.304037140469404</v>
+        <v>183.31</v>
       </c>
       <c r="I14">
-        <v>74.42060444317758</v>
+        <v>37.22258705511337</v>
       </c>
       <c r="J14">
+        <v>34894.47515077482</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>0.11</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+      <c r="L14">
+        <v>173.61</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1050,37 +1095,40 @@
         <v>3.1</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>1.54</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G15">
-        <v>44.71</v>
+        <v>3.1</v>
       </c>
       <c r="H15">
-        <v>4.018826999725093</v>
+        <v>32.03</v>
       </c>
       <c r="I15">
-        <v>72.74050571763655</v>
+        <v>37.95409387478747</v>
       </c>
       <c r="J15">
+        <v>35062.75541744346</v>
+      </c>
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="K15">
-        <v>0.02</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+      <c r="L15">
+        <v>174.27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1100,31 +1148,34 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>3.2</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1144,31 +1195,34 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>3.2</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1188,31 +1242,34 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>2.3</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,31 +1289,34 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>2.1</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1276,31 +1336,34 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1.7</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1320,31 +1383,34 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1.9</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,31 +1430,34 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1.7</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1408,31 +1477,34 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1.3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1452,31 +1524,34 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1510,17 +1585,20 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>14</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1554,17 +1632,20 @@
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>14</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1598,17 +1679,20 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>14</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1642,17 +1726,20 @@
       <c r="K28">
         <v>0</v>
       </c>
-      <c r="L28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>14</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1686,17 +1773,20 @@
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>14</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1730,17 +1820,20 @@
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>14</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1774,17 +1867,20 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1795,25 +1891,28 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>38.09999999999999</v>
+        <v>75.52</v>
       </c>
       <c r="F32">
-        <v>2709</v>
+        <v>2398</v>
       </c>
       <c r="G32">
-        <v>2138.37</v>
+        <v>29.5</v>
       </c>
       <c r="H32">
-        <v>69.97104022047938</v>
+        <v>1474.94</v>
       </c>
       <c r="I32">
-        <v>449.8702556091012</v>
+        <v>236.5594586730394</v>
       </c>
       <c r="J32">
+        <v>207989.0795278217</v>
+      </c>
+      <c r="K32">
         <v>6</v>
       </c>
-      <c r="K32">
-        <v>0.8900000000000001</v>
+      <c r="L32">
+        <v>1035.3</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -830,25 +830,25 @@
         <v>0.2</v>
       </c>
       <c r="E10">
-        <v>8.380000000000001</v>
+        <v>3641.44</v>
       </c>
       <c r="F10">
-        <v>594</v>
+        <v>504</v>
       </c>
       <c r="G10">
-        <v>468.62</v>
+        <v>388.86</v>
       </c>
       <c r="H10">
-        <v>9.038038375901294</v>
+        <v>7.631947977936022</v>
       </c>
       <c r="I10">
-        <v>75.1961981462664</v>
+        <v>74.45457224966958</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -874,25 +874,25 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>8.44</v>
+        <v>3743.33</v>
       </c>
       <c r="F11">
-        <v>602</v>
+        <v>520</v>
       </c>
       <c r="G11">
-        <v>475.46</v>
+        <v>401.51</v>
       </c>
       <c r="H11">
-        <v>9.963588420820088</v>
+        <v>8.670972117446581</v>
       </c>
       <c r="I11">
-        <v>75.73501523426967</v>
+        <v>75.05046465131454</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="L11" t="s">
         <v>13</v>
@@ -918,25 +918,25 @@
         <v>1.4</v>
       </c>
       <c r="E12">
-        <v>8.51</v>
+        <v>4000.74</v>
       </c>
       <c r="F12">
-        <v>614</v>
+        <v>557</v>
       </c>
       <c r="G12">
-        <v>485.92</v>
+        <v>430.27</v>
       </c>
       <c r="H12">
-        <v>10.55336407969622</v>
+        <v>9.613758874159487</v>
       </c>
       <c r="I12">
-        <v>76.07276696851476</v>
+        <v>75.57362522941547</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -962,25 +962,25 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>7.32</v>
+        <v>3496.19</v>
       </c>
       <c r="F13">
-        <v>522</v>
+        <v>487</v>
       </c>
       <c r="G13">
-        <v>412.26</v>
+        <v>376.24</v>
       </c>
       <c r="H13">
-        <v>9.793185203867267</v>
+        <v>9.194622087515768</v>
       </c>
       <c r="I13">
-        <v>75.70516509923618</v>
+        <v>75.38786127977073</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -1006,25 +1006,25 @@
         <v>2.5</v>
       </c>
       <c r="E14">
-        <v>4.62</v>
+        <v>2136.9</v>
       </c>
       <c r="F14">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="G14">
-        <v>251.4</v>
+        <v>231.21</v>
       </c>
       <c r="H14">
-        <v>7.304037140469404</v>
+        <v>6.954234615826579</v>
       </c>
       <c r="I14">
-        <v>74.42060444317758</v>
+        <v>74.2368407889735</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -1050,19 +1050,19 @@
         <v>3.1</v>
       </c>
       <c r="E15">
-        <v>0.83</v>
+        <v>354.9</v>
       </c>
       <c r="F15">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G15">
-        <v>44.71</v>
+        <v>40.58</v>
       </c>
       <c r="H15">
-        <v>4.018826999725093</v>
+        <v>3.942290415840091</v>
       </c>
       <c r="I15">
-        <v>72.74050571763655</v>
+        <v>72.70078428240959</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1795,25 +1795,25 @@
         <v>29.5</v>
       </c>
       <c r="E32">
-        <v>38.09999999999999</v>
+        <v>17373.5</v>
       </c>
       <c r="F32">
-        <v>2709</v>
+        <v>2419</v>
       </c>
       <c r="G32">
-        <v>2138.37</v>
+        <v>1868.67</v>
       </c>
       <c r="H32">
-        <v>69.97104022047938</v>
+        <v>65.30782608872454</v>
       </c>
       <c r="I32">
-        <v>449.8702556091012</v>
+        <v>447.4041484815534</v>
       </c>
       <c r="J32">
         <v>6</v>
       </c>
       <c r="K32">
-        <v>0.8900000000000001</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -22,13 +22,16 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Tamb</t>
+    <t>Tamb [°C]</t>
   </si>
   <si>
-    <t>Power</t>
+    <t>Power [W]</t>
   </si>
   <si>
-    <t>Effective_Irradiance</t>
+    <t>Effective Irradiance [W/m^2]</t>
+  </si>
+  <si>
+    <t>Tamb</t>
   </si>
   <si>
     <t>E_sdp_eff</t>
@@ -417,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,283 +466,304 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>43466</v>
+        <v>43466.33333333334</v>
       </c>
       <c r="D2">
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3612.35</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H2">
+        <v>457.08</v>
+      </c>
+      <c r="I2">
+        <v>8.918501589983464</v>
+      </c>
+      <c r="J2">
+        <v>75.13299190904945</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43466.375</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3708.11</v>
+      </c>
+      <c r="F3">
+        <v>515</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>470.82</v>
+      </c>
+      <c r="I3">
+        <v>9.977876856158787</v>
+      </c>
+      <c r="J3">
+        <v>75.74260137381498</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0.2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43466.04166666666</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
+      <c r="M3" t="s">
+        <v>14</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>43466.08333333334</v>
+        <v>43466.41666666666</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3965.18</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="H4">
-        <v>0.2</v>
+        <v>504.66</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.01575369540416</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>76.31906664621782</v>
       </c>
       <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>43466.125</v>
+        <v>43466.45833333334</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3465.68</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>441.59</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10.4274311933388</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>76.04218843224226</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>43466.16666666666</v>
+        <v>43466.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2117.35</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>271.57</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.717543376851552</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>74.63815759413409</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.11</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>43466.20833333334</v>
+        <v>43466.54166666666</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>351.17</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>46.66</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.057728029621103</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>72.7606994091766</v>
       </c>
       <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.02</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>43466.25</v>
+        <v>43466.58333333334</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -748,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -762,28 +786,31 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>14</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>43466.29166666666</v>
+        <v>43466.625</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>3.2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -792,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -806,292 +833,313 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>43466.33333333334</v>
+        <v>43466.66666666666</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="E10">
-        <v>3641.44</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>504</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>388.86</v>
+        <v>2.3</v>
       </c>
       <c r="H10">
-        <v>7.631947977936022</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>74.45457224966958</v>
+        <v>2.3</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.16</v>
-      </c>
-      <c r="L10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>43466.375</v>
+        <v>43466.70833333334</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="E11">
-        <v>3743.33</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>401.51</v>
+        <v>2.1</v>
       </c>
       <c r="H11">
-        <v>8.670972117446581</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>75.05046465131454</v>
+        <v>2.1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>43466.41666666666</v>
+        <v>43466.75</v>
       </c>
       <c r="D12">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="E12">
-        <v>4000.74</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>557</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>430.27</v>
+        <v>1.7</v>
       </c>
       <c r="H12">
-        <v>9.613758874159487</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>75.57362522941547</v>
+        <v>1.7</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>14</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>43466.45833333334</v>
+        <v>43466.79166666666</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="E13">
-        <v>3496.19</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>376.24</v>
+        <v>1.9</v>
       </c>
       <c r="H13">
-        <v>9.194622087515768</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>75.38786127977073</v>
+        <v>1.9</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>14</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>43466.5</v>
+        <v>43466.83333333334</v>
       </c>
       <c r="D14">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="E14">
-        <v>2136.9</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>231.21</v>
+        <v>1.7</v>
       </c>
       <c r="H14">
-        <v>6.954234615826579</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>74.2368407889735</v>
+        <v>1.7</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>14</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>43466.54166666666</v>
+        <v>43466.875</v>
       </c>
       <c r="D15">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="E15">
-        <v>354.9</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>40.58</v>
+        <v>1.3</v>
       </c>
       <c r="H15">
-        <v>3.942290415840091</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>72.70078428240959</v>
+        <v>1.3</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.02</v>
-      </c>
-      <c r="L15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>14</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>43466.58333333334</v>
+        <v>43466.91666666666</v>
       </c>
       <c r="D16">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1100,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1114,28 +1162,31 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>14</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>43466.625</v>
+        <v>43466.95833333334</v>
       </c>
       <c r="D17">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1147,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1158,28 +1209,31 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" t="s">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>43466.66666666666</v>
+        <v>43467</v>
       </c>
       <c r="D18">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1191,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1202,28 +1256,31 @@
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18" t="s">
-        <v>13</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>14</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>43466.70833333334</v>
+        <v>43467.04166666666</v>
       </c>
       <c r="D19">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1235,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1246,28 +1303,31 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>43466.75</v>
+        <v>43467.08333333334</v>
       </c>
       <c r="D20">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1279,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1290,28 +1350,31 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" t="s">
-        <v>13</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>14</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>43466.79166666666</v>
+        <v>43467.125</v>
       </c>
       <c r="D21">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1323,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1334,28 +1397,31 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>14</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>43466.83333333334</v>
+        <v>43467.16666666666</v>
       </c>
       <c r="D22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1367,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1378,28 +1444,31 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>14</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>43466.875</v>
+        <v>43467.20833333334</v>
       </c>
       <c r="D23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1411,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1422,398 +1491,52 @@
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>14</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
-        <v>43466.91666666666</v>
+        <v>407</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>28.6</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>17219.84</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2192.38</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>70.51483474135787</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>450.6357053646352</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43466.95833333334</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" t="s">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>24</v>
-      </c>
-      <c r="C26" s="2">
-        <v>43467</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
-        <v>13</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2">
-        <v>43467.04166666666</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>26</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43467.08333333334</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>27</v>
-      </c>
-      <c r="C29" s="2">
-        <v>43467.125</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" t="s">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30" s="2">
-        <v>43467.16666666666</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" t="s">
-        <v>13</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>29</v>
-      </c>
-      <c r="C31" s="2">
-        <v>43467.20833333334</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>435</v>
-      </c>
-      <c r="D32">
-        <v>29.5</v>
-      </c>
-      <c r="E32">
-        <v>17373.5</v>
-      </c>
-      <c r="F32">
-        <v>2419</v>
-      </c>
-      <c r="G32">
-        <v>1868.67</v>
-      </c>
-      <c r="H32">
-        <v>65.30782608872454</v>
-      </c>
-      <c r="I32">
-        <v>447.4041484815534</v>
-      </c>
-      <c r="J32">
         <v>6</v>
       </c>
-      <c r="K32">
-        <v>0.79</v>
+      <c r="L24">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3612.35</v>
+        <v>3509.76</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -493,19 +493,19 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>457.08</v>
+        <v>388.03</v>
       </c>
       <c r="I2">
-        <v>8.918501589983464</v>
+        <v>7.573784982752557</v>
       </c>
       <c r="J2">
-        <v>75.13299190904945</v>
+        <v>74.42398229939863</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="M2" t="s">
         <v>14</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3708.11</v>
+        <v>3597.94</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>470.82</v>
+        <v>400.05</v>
       </c>
       <c r="I3">
-        <v>9.977876856158787</v>
+        <v>8.597810665975032</v>
       </c>
       <c r="J3">
-        <v>75.74260137381498</v>
+        <v>75.01182208640967</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="M3" t="s">
         <v>14</v>
@@ -578,7 +578,7 @@
         <v>1.4</v>
       </c>
       <c r="E4">
-        <v>3965.18</v>
+        <v>3839.8</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -587,19 +587,19 @@
         <v>1.4</v>
       </c>
       <c r="H4">
-        <v>504.66</v>
+        <v>429.15</v>
       </c>
       <c r="I4">
-        <v>11.01575369540416</v>
+        <v>9.540772695539999</v>
       </c>
       <c r="J4">
-        <v>76.31906664621782</v>
+        <v>75.53492913139053</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="M4" t="s">
         <v>14</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3465.68</v>
+        <v>3369</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -634,19 +634,19 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>441.59</v>
+        <v>375.31</v>
       </c>
       <c r="I5">
-        <v>10.4274311933388</v>
+        <v>9.137035687400783</v>
       </c>
       <c r="J5">
-        <v>76.04218843224226</v>
+        <v>75.35737302101916</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -672,7 +672,7 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>2117.35</v>
+        <v>2078.24</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -681,19 +681,19 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>271.57</v>
+        <v>230.63</v>
       </c>
       <c r="I6">
-        <v>7.717543376851552</v>
+        <v>6.92715541304716</v>
       </c>
       <c r="J6">
-        <v>74.63815759413409</v>
+        <v>74.22262558713555</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -719,7 +719,7 @@
         <v>3.1</v>
       </c>
       <c r="E7">
-        <v>351.17</v>
+        <v>349.92</v>
       </c>
       <c r="F7">
         <v>51</v>
@@ -728,13 +728,13 @@
         <v>3.1</v>
       </c>
       <c r="H7">
-        <v>46.66</v>
+        <v>39.76</v>
       </c>
       <c r="I7">
-        <v>4.057728029621103</v>
+        <v>3.926192532241316</v>
       </c>
       <c r="J7">
-        <v>72.7606994091766</v>
+        <v>72.69243122509215</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>17219.84</v>
+        <v>16744.66</v>
       </c>
       <c r="F24">
         <v>2398</v>
@@ -1524,19 +1524,19 @@
         <v>28.6</v>
       </c>
       <c r="H24">
-        <v>2192.38</v>
+        <v>1862.93</v>
       </c>
       <c r="I24">
-        <v>70.51483474135787</v>
+        <v>64.10275197695685</v>
       </c>
       <c r="J24">
-        <v>450.6357053646352</v>
+        <v>447.2431633504457</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
       <c r="L24">
-        <v>0.91</v>
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3509.76</v>
+        <v>3408.49</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -493,7 +493,7 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>388.03</v>
+        <v>390.25</v>
       </c>
       <c r="I2">
         <v>7.573784982752557</v>
@@ -531,7 +531,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>3597.94</v>
+        <v>3489.62</v>
       </c>
       <c r="F3">
         <v>515</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>400.05</v>
+        <v>402.42</v>
       </c>
       <c r="I3">
         <v>8.597810665975032</v>
@@ -578,7 +578,7 @@
         <v>1.4</v>
       </c>
       <c r="E4">
-        <v>3839.8</v>
+        <v>3715.75</v>
       </c>
       <c r="F4">
         <v>552</v>
@@ -587,7 +587,7 @@
         <v>1.4</v>
       </c>
       <c r="H4">
-        <v>429.15</v>
+        <v>431.87</v>
       </c>
       <c r="I4">
         <v>9.540772695539999</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3369</v>
+        <v>3273.77</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>375.31</v>
+        <v>377.4</v>
       </c>
       <c r="I5">
         <v>9.137035687400783</v>
@@ -672,7 +672,7 @@
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>2078.24</v>
+        <v>2040.38</v>
       </c>
       <c r="F6">
         <v>297</v>
@@ -681,7 +681,7 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>230.63</v>
+        <v>231.46</v>
       </c>
       <c r="I6">
         <v>6.92715541304716</v>
@@ -1515,7 +1515,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>16744.66</v>
+        <v>16277.93</v>
       </c>
       <c r="F24">
         <v>2398</v>
@@ -1524,7 +1524,7 @@
         <v>28.6</v>
       </c>
       <c r="H24">
-        <v>1862.93</v>
+        <v>1873.16</v>
       </c>
       <c r="I24">
         <v>64.10275197695685</v>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -484,7 +484,7 @@
         <v>0.2</v>
       </c>
       <c r="E2">
-        <v>3408.49</v>
+        <v>3410.1</v>
       </c>
       <c r="F2">
         <v>500</v>
@@ -493,7 +493,7 @@
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>390.25</v>
+        <v>390.22</v>
       </c>
       <c r="I2">
         <v>7.573784982752557</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>3273.77</v>
+        <v>3275.29</v>
       </c>
       <c r="F5">
         <v>483</v>
@@ -634,7 +634,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>377.4</v>
+        <v>377.36</v>
       </c>
       <c r="I5">
         <v>9.137035687400783</v>
@@ -1515,7 +1515,7 @@
         <v>28.6</v>
       </c>
       <c r="E24">
-        <v>16277.93</v>
+        <v>16281.06</v>
       </c>
       <c r="F24">
         <v>2398</v>
@@ -1524,7 +1524,7 @@
         <v>28.6</v>
       </c>
       <c r="H24">
-        <v>1873.16</v>
+        <v>1873.09</v>
       </c>
       <c r="I24">
         <v>64.10275197695685</v>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="15">
   <si>
     <t>Index</t>
   </si>
@@ -420,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,13 +475,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3599</v>
       </c>
       <c r="C2" s="2">
-        <v>43466</v>
+        <v>43615.95833333334</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>15.5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -490,13 +490,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2</v>
+        <v>15.5</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>15.5</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -522,13 +522,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="C3" s="2">
-        <v>43466.04166666666</v>
+        <v>43616</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -569,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3601</v>
       </c>
       <c r="C4" s="2">
-        <v>43466.08333333334</v>
+        <v>43616.04166666666</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2</v>
+        <v>13.6</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -616,13 +616,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>3602</v>
       </c>
       <c r="C5" s="2">
-        <v>43466.125</v>
+        <v>43616.08333333334</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -631,13 +631,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -663,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3603</v>
       </c>
       <c r="C6" s="2">
-        <v>43466.16666666666</v>
+        <v>43616.125</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -710,43 +710,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3604</v>
       </c>
       <c r="C7" s="2">
-        <v>43466.20833333334</v>
+        <v>43616.16666666666</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>158.94</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-1535.46</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.48803607101866</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2244.418700264709</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -757,43 +757,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3605</v>
       </c>
       <c r="C8" s="2">
-        <v>43466.25</v>
+        <v>43616.20833333334</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>211.37</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>14.7</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>-2043.02</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.4140439319666</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2259.455297933542</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -804,43 +804,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>3606</v>
       </c>
       <c r="C9" s="2">
-        <v>43466.29166666666</v>
+        <v>43616.25</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>15.6</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>416.27</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G9">
-        <v>0.3</v>
+        <v>15.6</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-4024.13</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
+        <v>14.812955622027</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2251.992586446693</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -851,43 +851,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>3607</v>
       </c>
       <c r="C10" s="2">
-        <v>43466.33333333334</v>
+        <v>43616.29166666666</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>16.9</v>
       </c>
       <c r="E10">
-        <v>15.84</v>
+        <v>970.3</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>346</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>16.9</v>
       </c>
       <c r="H10">
-        <v>306.6</v>
+        <v>-9381.219999999999</v>
       </c>
       <c r="I10">
-        <v>34.29590220707155</v>
+        <v>12.02636502737283</v>
       </c>
       <c r="J10">
-        <v>34232.17088263616</v>
+        <v>2213.800901771814</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>170.48</v>
+        <v>-0.25</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -898,43 +898,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>3608</v>
       </c>
       <c r="C11" s="2">
-        <v>43466.375</v>
+        <v>43616.33333333334</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>19.2</v>
       </c>
       <c r="E11">
-        <v>16.26</v>
+        <v>1573.25</v>
       </c>
       <c r="F11">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>19.2</v>
       </c>
       <c r="H11">
-        <v>316.35</v>
+        <v>-15207.05</v>
       </c>
       <c r="I11">
-        <v>35.32771220135572</v>
+        <v>9.930682464164079</v>
       </c>
       <c r="J11">
-        <v>34464.17082202469</v>
+        <v>2187.032207101875</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>171.64</v>
+        <v>-0.48</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -945,43 +945,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>3609</v>
       </c>
       <c r="C12" s="2">
-        <v>43466.41666666666</v>
+        <v>43616.375</v>
       </c>
       <c r="D12">
-        <v>1.4</v>
+        <v>19.8</v>
       </c>
       <c r="E12">
-        <v>17.39</v>
+        <v>2067.01</v>
       </c>
       <c r="F12">
-        <v>552</v>
+        <v>745</v>
       </c>
       <c r="G12">
-        <v>1.4</v>
+        <v>19.8</v>
       </c>
       <c r="H12">
-        <v>339.46</v>
+        <v>-19977.25</v>
       </c>
       <c r="I12">
-        <v>35.84906035242278</v>
+        <v>6.910184555402282</v>
       </c>
       <c r="J12">
-        <v>34581.43775817618</v>
+        <v>2145.227920702659</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>172.25</v>
+        <v>-0.67</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -992,43 +992,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>3610</v>
       </c>
       <c r="C13" s="2">
-        <v>43466.45833333334</v>
+        <v>43616.41666666666</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>15.2</v>
+        <v>2285.55</v>
       </c>
       <c r="F13">
-        <v>483</v>
+        <v>840</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>297.19</v>
+        <v>-22074.3</v>
       </c>
       <c r="I13">
-        <v>36.61010298228854</v>
+        <v>6.679115449738731</v>
       </c>
       <c r="J13">
-        <v>34754.06949676637</v>
+        <v>2143.547192749102</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>173.05</v>
+        <v>-0.75</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1039,43 +1039,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>3611</v>
       </c>
       <c r="C14" s="2">
-        <v>43466.5</v>
+        <v>43616.45833333334</v>
       </c>
       <c r="D14">
-        <v>2.5</v>
+        <v>22.1</v>
       </c>
       <c r="E14">
-        <v>9.289999999999999</v>
+        <v>2228</v>
       </c>
       <c r="F14">
-        <v>297</v>
+        <v>823</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>22.1</v>
       </c>
       <c r="H14">
-        <v>183.31</v>
+        <v>-21514.61</v>
       </c>
       <c r="I14">
-        <v>37.22258705511337</v>
+        <v>8.261406734695413</v>
       </c>
       <c r="J14">
-        <v>34894.47515077482</v>
+        <v>2167.232726213115</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>173.61</v>
+        <v>-0.72</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1086,43 +1086,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>3612</v>
       </c>
       <c r="C15" s="2">
-        <v>43466.54166666666</v>
+        <v>43616.5</v>
       </c>
       <c r="D15">
-        <v>3.1</v>
+        <v>22.6</v>
       </c>
       <c r="E15">
-        <v>1.54</v>
+        <v>1897.99</v>
       </c>
       <c r="F15">
-        <v>51</v>
+        <v>700</v>
       </c>
       <c r="G15">
-        <v>3.1</v>
+        <v>22.6</v>
       </c>
       <c r="H15">
-        <v>32.03</v>
+        <v>-18328.9</v>
       </c>
       <c r="I15">
-        <v>37.95409387478747</v>
+        <v>11.16967875393755</v>
       </c>
       <c r="J15">
-        <v>35062.75541744346</v>
+        <v>2209.097687986388</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>174.27</v>
+        <v>-0.6</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1133,43 +1133,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>3613</v>
       </c>
       <c r="C16" s="2">
-        <v>43466.58333333334</v>
+        <v>43616.54166666666</v>
       </c>
       <c r="D16">
-        <v>3.2</v>
+        <v>23.5</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1383.51</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>504</v>
       </c>
       <c r="G16">
-        <v>3.2</v>
+        <v>23.5</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-13366.38</v>
       </c>
       <c r="I16">
-        <v>3.2</v>
+        <v>15.77674785390548</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2276.386043133563</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1180,43 +1180,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>3614</v>
       </c>
       <c r="C17" s="2">
-        <v>43466.625</v>
+        <v>43616.58333333334</v>
       </c>
       <c r="D17">
-        <v>3.2</v>
+        <v>23.7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>799.83</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G17">
-        <v>3.2</v>
+        <v>23.7</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-7728.6</v>
       </c>
       <c r="I17">
-        <v>3.2</v>
+        <v>20.24744081151886</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2341.743785613857</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1227,43 +1227,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>3615</v>
       </c>
       <c r="C18" s="2">
-        <v>43466.66666666666</v>
+        <v>43616.625</v>
       </c>
       <c r="D18">
-        <v>2.3</v>
+        <v>23.3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>316.4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="G18">
-        <v>2.3</v>
+        <v>23.3</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>-3055.19</v>
       </c>
       <c r="I18">
-        <v>2.3</v>
+        <v>23.41225750950929</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2387.839269404067</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1274,43 +1274,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>3616</v>
       </c>
       <c r="C19" s="2">
-        <v>43466.70833333334</v>
+        <v>43616.66666666666</v>
       </c>
       <c r="D19">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>84.23</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G19">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>-812.54</v>
       </c>
       <c r="I19">
-        <v>2.1</v>
+        <v>23.78426156852561</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2391.581807444745</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="M19" t="s">
         <v>14</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1321,43 +1321,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>3617</v>
       </c>
       <c r="C20" s="2">
-        <v>43466.75</v>
+        <v>43616.70833333334</v>
       </c>
       <c r="D20">
-        <v>1.7</v>
+        <v>22.5</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>13.42</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>1.7</v>
+        <v>22.5</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-129.55</v>
       </c>
       <c r="I20">
-        <v>1.7</v>
+        <v>24.79745213665274</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2407.305699528719</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1368,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>3618</v>
       </c>
       <c r="C21" s="2">
-        <v>43466.79166666666</v>
+        <v>43616.75</v>
       </c>
       <c r="D21">
-        <v>1.9</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1383,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.9</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.9</v>
+        <v>21</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1415,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>3619</v>
       </c>
       <c r="C22" s="2">
-        <v>43466.83333333334</v>
+        <v>43616.79166666666</v>
       </c>
       <c r="D22">
-        <v>1.7</v>
+        <v>20.4</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.7</v>
+        <v>20.4</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.7</v>
+        <v>20.4</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1462,13 +1462,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>3620</v>
       </c>
       <c r="C23" s="2">
-        <v>43466.875</v>
+        <v>43616.83333333334</v>
       </c>
       <c r="D23">
-        <v>1.3</v>
+        <v>18.1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.3</v>
+        <v>18.1</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.3</v>
+        <v>18.1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>3621</v>
       </c>
       <c r="C24" s="2">
-        <v>43466.91666666666</v>
+        <v>43616.875</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1524,13 +1524,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1556,13 +1556,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>3622</v>
       </c>
       <c r="C25" s="2">
-        <v>43466.95833333334</v>
+        <v>43616.91666666666</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1571,13 +1571,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1603,13 +1603,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>3623</v>
       </c>
       <c r="C26" s="2">
-        <v>43467</v>
+        <v>43616.95833333334</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1650,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>3624</v>
       </c>
       <c r="C27" s="2">
-        <v>43467.04166666666</v>
+        <v>43617</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>12.2</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>3625</v>
       </c>
       <c r="C28" s="2">
-        <v>43467.08333333334</v>
+        <v>43617.04166666666</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1712,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>3626</v>
       </c>
       <c r="C29" s="2">
-        <v>43467.125</v>
+        <v>43617.08333333334</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1759,13 +1759,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1791,13 +1791,13 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>3627</v>
       </c>
       <c r="C30" s="2">
-        <v>43467.16666666666</v>
+        <v>43617.125</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1838,43 +1838,43 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>3628</v>
       </c>
       <c r="C31" s="2">
-        <v>43467.20833333334</v>
+        <v>43617.16666666666</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>161.93</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-1565.36</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>10.59545588405643</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2183.922329209454</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
@@ -1885,34 +1885,6520 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>435</v>
+        <v>3629</v>
+      </c>
+      <c r="C32" s="2">
+        <v>43617.20833333334</v>
       </c>
       <c r="D32">
-        <v>29.5</v>
+        <v>11.5</v>
       </c>
       <c r="E32">
-        <v>75.52</v>
+        <v>214.13</v>
       </c>
       <c r="F32">
-        <v>2398</v>
+        <v>76</v>
       </c>
       <c r="G32">
-        <v>29.5</v>
+        <v>11.5</v>
       </c>
       <c r="H32">
-        <v>1474.94</v>
+        <v>-2070.62</v>
       </c>
       <c r="I32">
-        <v>236.5594586730394</v>
+        <v>12.1331583517516</v>
       </c>
       <c r="J32">
-        <v>207989.0795278217</v>
+        <v>2208.243587563629</v>
       </c>
       <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.03</v>
+      </c>
+      <c r="M32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>3630</v>
+      </c>
+      <c r="C33" s="2">
+        <v>43617.25</v>
+      </c>
+      <c r="D33">
+        <v>14.5</v>
+      </c>
+      <c r="E33">
+        <v>417.26</v>
+      </c>
+      <c r="F33">
+        <v>149</v>
+      </c>
+      <c r="G33">
+        <v>14.5</v>
+      </c>
+      <c r="H33">
+        <v>-4034.03</v>
+      </c>
+      <c r="I33">
+        <v>13.684620494142</v>
+      </c>
+      <c r="J33">
+        <v>2234.344058026967</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>-0.04</v>
+      </c>
+      <c r="M33" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>3631</v>
+      </c>
+      <c r="C34" s="2">
+        <v>43617.29166666666</v>
+      </c>
+      <c r="D34">
+        <v>17.2</v>
+      </c>
+      <c r="E34">
+        <v>968.22</v>
+      </c>
+      <c r="F34">
+        <v>345</v>
+      </c>
+      <c r="G34">
+        <v>17.2</v>
+      </c>
+      <c r="H34">
+        <v>-9361.35</v>
+      </c>
+      <c r="I34">
+        <v>12.34385032543577</v>
+      </c>
+      <c r="J34">
+        <v>2218.724548928847</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>-0.25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>3632</v>
+      </c>
+      <c r="C35" s="2">
+        <v>43617.33333333334</v>
+      </c>
+      <c r="D35">
+        <v>20.4</v>
+      </c>
+      <c r="E35">
+        <v>1537.11</v>
+      </c>
+      <c r="F35">
+        <v>564</v>
+      </c>
+      <c r="G35">
+        <v>20.4</v>
+      </c>
+      <c r="H35">
+        <v>-14846.58</v>
+      </c>
+      <c r="I35">
+        <v>11.54088663072486</v>
+      </c>
+      <c r="J35">
+        <v>2211.48588323209</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>-0.46</v>
+      </c>
+      <c r="M35" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3633</v>
+      </c>
+      <c r="C36" s="2">
+        <v>43617.375</v>
+      </c>
+      <c r="D36">
+        <v>22.1</v>
+      </c>
+      <c r="E36">
+        <v>1991.43</v>
+      </c>
+      <c r="F36">
+        <v>744</v>
+      </c>
+      <c r="G36">
+        <v>22.1</v>
+      </c>
+      <c r="H36">
+        <v>-19222.38</v>
+      </c>
+      <c r="I36">
+        <v>10.07733555113674</v>
+      </c>
+      <c r="J36">
+        <v>2192.915749629203</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>-0.63</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3634</v>
+      </c>
+      <c r="C37" s="2">
+        <v>43617.41666666666</v>
+      </c>
+      <c r="D37">
+        <v>22.9</v>
+      </c>
+      <c r="E37">
+        <v>2222.74</v>
+      </c>
+      <c r="F37">
+        <v>839</v>
+      </c>
+      <c r="G37">
+        <v>22.9</v>
+      </c>
+      <c r="H37">
+        <v>-21447.13</v>
+      </c>
+      <c r="I37">
+        <v>9.298382068359615</v>
+      </c>
+      <c r="J37">
+        <v>2182.929518105986</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>-0.71</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>3635</v>
+      </c>
+      <c r="C38" s="2">
+        <v>43617.45833333334</v>
+      </c>
+      <c r="D38">
+        <v>23.3</v>
+      </c>
+      <c r="E38">
+        <v>2175.88</v>
+      </c>
+      <c r="F38">
+        <v>823</v>
+      </c>
+      <c r="G38">
+        <v>23.3</v>
+      </c>
+      <c r="H38">
+        <v>-20993.41</v>
+      </c>
+      <c r="I38">
+        <v>10.06088661734231</v>
+      </c>
+      <c r="J38">
+        <v>2194.259985264507</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="M38" t="s">
+        <v>14</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>3636</v>
+      </c>
+      <c r="C39" s="2">
+        <v>43617.5</v>
+      </c>
+      <c r="D39">
+        <v>24.6</v>
+      </c>
+      <c r="E39">
+        <v>1864.44</v>
+      </c>
+      <c r="F39">
+        <v>700</v>
+      </c>
+      <c r="G39">
+        <v>24.6</v>
+      </c>
+      <c r="H39">
+        <v>-17993.4</v>
+      </c>
+      <c r="I39">
+        <v>13.57485385979214</v>
+      </c>
+      <c r="J39">
+        <v>2246.132055855007</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>-0.57</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>3637</v>
+      </c>
+      <c r="C40" s="2">
+        <v>43617.54166666666</v>
+      </c>
+      <c r="D40">
+        <v>26.2</v>
+      </c>
+      <c r="E40">
+        <v>1353.5</v>
+      </c>
+      <c r="F40">
+        <v>505</v>
+      </c>
+      <c r="G40">
+        <v>26.2</v>
+      </c>
+      <c r="H40">
+        <v>-13065.35</v>
+      </c>
+      <c r="I40">
+        <v>18.86396110681005</v>
+      </c>
+      <c r="J40">
+        <v>2324.871206402138</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>-0.38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>3638</v>
+      </c>
+      <c r="C41" s="2">
+        <v>43617.58333333334</v>
+      </c>
+      <c r="D41">
+        <v>25.5</v>
+      </c>
+      <c r="E41">
+        <v>787.33</v>
+      </c>
+      <c r="F41">
+        <v>291</v>
+      </c>
+      <c r="G41">
+        <v>25.5</v>
+      </c>
+      <c r="H41">
+        <v>-7602.67</v>
+      </c>
+      <c r="I41">
+        <v>22.22554113505527</v>
+      </c>
+      <c r="J41">
+        <v>2373.286122352874</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>-0.17</v>
+      </c>
+      <c r="M41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>3639</v>
+      </c>
+      <c r="C42" s="2">
+        <v>43617.625</v>
+      </c>
+      <c r="D42">
+        <v>26.5</v>
+      </c>
+      <c r="E42">
+        <v>312.64</v>
+      </c>
+      <c r="F42">
+        <v>118</v>
+      </c>
+      <c r="G42">
+        <v>26.5</v>
+      </c>
+      <c r="H42">
+        <v>-3016.66</v>
+      </c>
+      <c r="I42">
+        <v>26.71652408097015</v>
+      </c>
+      <c r="J42">
+        <v>2441.425058891939</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>0.01</v>
+      </c>
+      <c r="M42" t="s">
+        <v>14</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>3640</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43617.66666666666</v>
+      </c>
+      <c r="D43">
+        <v>26.9</v>
+      </c>
+      <c r="E43">
+        <v>82.81999999999999</v>
+      </c>
+      <c r="F43">
+        <v>33</v>
+      </c>
+      <c r="G43">
+        <v>26.9</v>
+      </c>
+      <c r="H43">
+        <v>-797.51</v>
+      </c>
+      <c r="I43">
+        <v>28.79042397753375</v>
+      </c>
+      <c r="J43">
+        <v>2473.133310388599</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>0.1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>3641</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43617.70833333334</v>
+      </c>
+      <c r="D44">
+        <v>27.9</v>
+      </c>
+      <c r="E44">
+        <v>14.02</v>
+      </c>
+      <c r="F44">
         <v>6</v>
       </c>
-      <c r="L32">
-        <v>1035.3</v>
+      <c r="G44">
+        <v>27.9</v>
+      </c>
+      <c r="H44">
+        <v>-134.62</v>
+      </c>
+      <c r="I44">
+        <v>30.28987323912179</v>
+      </c>
+      <c r="J44">
+        <v>2497.174871804251</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>0.12</v>
+      </c>
+      <c r="M44" t="s">
+        <v>14</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>3642</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43617.75</v>
+      </c>
+      <c r="D45">
+        <v>25.4</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>25.4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>25.4</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>3643</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43617.79166666666</v>
+      </c>
+      <c r="D46">
+        <v>24.5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>24.5</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>24.5</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>14</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>3644</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43617.83333333334</v>
+      </c>
+      <c r="D47">
+        <v>20.7</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>20.7</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>20.7</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>14</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>3645</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43617.875</v>
+      </c>
+      <c r="D48">
+        <v>18.5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>18.5</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>18.5</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>3646</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43617.91666666666</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>17</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>17</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>14</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>3647</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43617.95833333334</v>
+      </c>
+      <c r="D50">
+        <v>16.3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>16.3</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>16.3</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>14</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>3648</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43618</v>
+      </c>
+      <c r="D51">
+        <v>15.4</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>15.4</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>15.4</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>14</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>3649</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43618.04166666666</v>
+      </c>
+      <c r="D52">
+        <v>16.4</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>16.4</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>16.4</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>14</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3650</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43618.08333333334</v>
+      </c>
+      <c r="D53">
+        <v>14.3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>14.3</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>14.3</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>14</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3651</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43618.125</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>14</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3652</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43618.16666666666</v>
+      </c>
+      <c r="D55">
+        <v>15</v>
+      </c>
+      <c r="E55">
+        <v>158.03</v>
+      </c>
+      <c r="F55">
+        <v>58</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>-1526.36</v>
+      </c>
+      <c r="I55">
+        <v>16.12339855068126</v>
+      </c>
+      <c r="J55">
+        <v>2270.085010797658</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0.06</v>
+      </c>
+      <c r="M55" t="s">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3653</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43618.20833333334</v>
+      </c>
+      <c r="D56">
+        <v>16.7</v>
+      </c>
+      <c r="E56">
+        <v>209.03</v>
+      </c>
+      <c r="F56">
+        <v>76</v>
+      </c>
+      <c r="G56">
+        <v>16.7</v>
+      </c>
+      <c r="H56">
+        <v>-2019.62</v>
+      </c>
+      <c r="I56">
+        <v>17.47168514931093</v>
+      </c>
+      <c r="J56">
+        <v>2291.862577211403</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0.04</v>
+      </c>
+      <c r="M56" t="s">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3654</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43618.25</v>
+      </c>
+      <c r="D57">
+        <v>19.9</v>
+      </c>
+      <c r="E57">
+        <v>406.46</v>
+      </c>
+      <c r="F57">
+        <v>148</v>
+      </c>
+      <c r="G57">
+        <v>19.9</v>
+      </c>
+      <c r="H57">
+        <v>-3926.96</v>
+      </c>
+      <c r="I57">
+        <v>19.27981033712689</v>
+      </c>
+      <c r="J57">
+        <v>2322.465420090826</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>-0.03</v>
+      </c>
+      <c r="M57" t="s">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3655</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43618.29166666666</v>
+      </c>
+      <c r="D58">
+        <v>22.4</v>
+      </c>
+      <c r="E58">
+        <v>950.36</v>
+      </c>
+      <c r="F58">
+        <v>345</v>
+      </c>
+      <c r="G58">
+        <v>22.4</v>
+      </c>
+      <c r="H58">
+        <v>-9182.75</v>
+      </c>
+      <c r="I58">
+        <v>17.82479339469705</v>
+      </c>
+      <c r="J58">
+        <v>2304.611812879681</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>-0.24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3656</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43618.33333333334</v>
+      </c>
+      <c r="D59">
+        <v>24.8</v>
+      </c>
+      <c r="E59">
+        <v>1534.16</v>
+      </c>
+      <c r="F59">
+        <v>563</v>
+      </c>
+      <c r="G59">
+        <v>24.8</v>
+      </c>
+      <c r="H59">
+        <v>-14818.01</v>
+      </c>
+      <c r="I59">
+        <v>16.03364473499244</v>
+      </c>
+      <c r="J59">
+        <v>2281.83914497064</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>-0.46</v>
+      </c>
+      <c r="M59" t="s">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3657</v>
+      </c>
+      <c r="C60" s="2">
+        <v>43618.375</v>
+      </c>
+      <c r="D60">
+        <v>26.6</v>
+      </c>
+      <c r="E60">
+        <v>1985.7</v>
+      </c>
+      <c r="F60">
+        <v>743</v>
+      </c>
+      <c r="G60">
+        <v>26.6</v>
+      </c>
+      <c r="H60">
+        <v>-19166.01</v>
+      </c>
+      <c r="I60">
+        <v>14.70268877057367</v>
+      </c>
+      <c r="J60">
+        <v>2265.021792802785</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>-0.62</v>
+      </c>
+      <c r="M60" t="s">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3658</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43618.41666666666</v>
+      </c>
+      <c r="D61">
+        <v>28.1</v>
+      </c>
+      <c r="E61">
+        <v>2235</v>
+      </c>
+      <c r="F61">
+        <v>838</v>
+      </c>
+      <c r="G61">
+        <v>28.1</v>
+      </c>
+      <c r="H61">
+        <v>-21570.66</v>
+      </c>
+      <c r="I61">
+        <v>14.43466161770698</v>
+      </c>
+      <c r="J61">
+        <v>2263.163142622972</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>-0.71</v>
+      </c>
+      <c r="M61" t="s">
+        <v>14</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3659</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43618.45833333334</v>
+      </c>
+      <c r="D62">
+        <v>29</v>
+      </c>
+      <c r="E62">
+        <v>2202.89</v>
+      </c>
+      <c r="F62">
+        <v>822</v>
+      </c>
+      <c r="G62">
+        <v>29</v>
+      </c>
+      <c r="H62">
+        <v>-21264.44</v>
+      </c>
+      <c r="I62">
+        <v>15.54118212844168</v>
+      </c>
+      <c r="J62">
+        <v>2280.341521020455</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>-0.7</v>
+      </c>
+      <c r="M62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3660</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43618.5</v>
+      </c>
+      <c r="D63">
+        <v>30.1</v>
+      </c>
+      <c r="E63">
+        <v>1877.05</v>
+      </c>
+      <c r="F63">
+        <v>700</v>
+      </c>
+      <c r="G63">
+        <v>30.1</v>
+      </c>
+      <c r="H63">
+        <v>-18119.5</v>
+      </c>
+      <c r="I63">
+        <v>19.02363994653109</v>
+      </c>
+      <c r="J63">
+        <v>2332.478758437152</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>-0.58</v>
+      </c>
+      <c r="M63" t="s">
+        <v>14</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3661</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43618.54166666666</v>
+      </c>
+      <c r="D64">
+        <v>29</v>
+      </c>
+      <c r="E64">
+        <v>1372.04</v>
+      </c>
+      <c r="F64">
+        <v>505</v>
+      </c>
+      <c r="G64">
+        <v>29</v>
+      </c>
+      <c r="H64">
+        <v>-13250.75</v>
+      </c>
+      <c r="I64">
+        <v>21.50374974230647</v>
+      </c>
+      <c r="J64">
+        <v>2367.402470520989</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>-0.39</v>
+      </c>
+      <c r="M64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>3662</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43618.58333333334</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>785.1900000000001</v>
+      </c>
+      <c r="F65">
+        <v>292</v>
+      </c>
+      <c r="G65">
+        <v>30</v>
+      </c>
+      <c r="H65">
+        <v>-7580.34</v>
+      </c>
+      <c r="I65">
+        <v>26.83354618617579</v>
+      </c>
+      <c r="J65">
+        <v>2448.004179940093</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>-0.16</v>
+      </c>
+      <c r="M65" t="s">
+        <v>14</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>3663</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43618.625</v>
+      </c>
+      <c r="D66">
+        <v>30.8</v>
+      </c>
+      <c r="E66">
+        <v>310.51</v>
+      </c>
+      <c r="F66">
+        <v>119</v>
+      </c>
+      <c r="G66">
+        <v>30.8</v>
+      </c>
+      <c r="H66">
+        <v>-2994.43</v>
+      </c>
+      <c r="I66">
+        <v>31.12165520401084</v>
+      </c>
+      <c r="J66">
+        <v>2513.833457909874</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0.02</v>
+      </c>
+      <c r="M66" t="s">
+        <v>14</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>3664</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43618.66666666666</v>
+      </c>
+      <c r="D67">
+        <v>31.2</v>
+      </c>
+      <c r="E67">
+        <v>81.91</v>
+      </c>
+      <c r="F67">
+        <v>33</v>
+      </c>
+      <c r="G67">
+        <v>31.2</v>
+      </c>
+      <c r="H67">
+        <v>-788.41</v>
+      </c>
+      <c r="I67">
+        <v>33.17201554014395</v>
+      </c>
+      <c r="J67">
+        <v>2545.645558892924</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0.1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>14</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>3665</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43618.70833333334</v>
+      </c>
+      <c r="D68">
+        <v>30.3</v>
+      </c>
+      <c r="E68">
+        <v>14.82</v>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>30.3</v>
+      </c>
+      <c r="H68">
+        <v>-142.62</v>
+      </c>
+      <c r="I68">
+        <v>32.7209880817399</v>
+      </c>
+      <c r="J68">
+        <v>2537.492014123185</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0.13</v>
+      </c>
+      <c r="M68" t="s">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3666</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43618.75</v>
+      </c>
+      <c r="D69">
+        <v>29.6</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>29.6</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>29.6</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>14</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>3667</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43618.79166666666</v>
+      </c>
+      <c r="D70">
+        <v>26.8</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>26.8</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>26.8</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>14</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>3668</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43618.83333333334</v>
+      </c>
+      <c r="D71">
+        <v>24.7</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>24.7</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>24.7</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>14</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>3669</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43618.875</v>
+      </c>
+      <c r="D72">
+        <v>22.8</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>22.8</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>22.8</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>14</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3670</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43618.91666666666</v>
+      </c>
+      <c r="D73">
+        <v>23.1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>23.1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>23.1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>14</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>3671</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43618.95833333334</v>
+      </c>
+      <c r="D74">
+        <v>22.1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>22.1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>22.1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>14</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>3672</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43619</v>
+      </c>
+      <c r="D75">
+        <v>21.7</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>21.7</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>21.7</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>3673</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43619.04166666666</v>
+      </c>
+      <c r="D76">
+        <v>20.8</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>20.8</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>20.8</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>14</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>3674</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43619.08333333334</v>
+      </c>
+      <c r="D77">
+        <v>17.3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>17.3</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>17.3</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>14</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>3675</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43619.125</v>
+      </c>
+      <c r="D78">
+        <v>17.2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>17.2</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>17.2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>3676</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43619.16666666666</v>
+      </c>
+      <c r="D79">
+        <v>18.8</v>
+      </c>
+      <c r="E79">
+        <v>155.8</v>
+      </c>
+      <c r="F79">
+        <v>58</v>
+      </c>
+      <c r="G79">
+        <v>18.8</v>
+      </c>
+      <c r="H79">
+        <v>-1504.06</v>
+      </c>
+      <c r="I79">
+        <v>20.0087080381789</v>
+      </c>
+      <c r="J79">
+        <v>2331.644822115893</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0.06</v>
+      </c>
+      <c r="M79" t="s">
+        <v>14</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>3677</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43619.20833333334</v>
+      </c>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>207.93</v>
+      </c>
+      <c r="F80">
+        <v>76</v>
+      </c>
+      <c r="G80">
+        <v>18</v>
+      </c>
+      <c r="H80">
+        <v>-2008.62</v>
+      </c>
+      <c r="I80">
+        <v>18.80461607033266</v>
+      </c>
+      <c r="J80">
+        <v>2312.984539858939</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0.04</v>
+      </c>
+      <c r="M80" t="s">
+        <v>14</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>3678</v>
+      </c>
+      <c r="C81" s="2">
+        <v>43619.25</v>
+      </c>
+      <c r="D81">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>408.45</v>
+      </c>
+      <c r="F81">
+        <v>148</v>
+      </c>
+      <c r="G81">
+        <v>19</v>
+      </c>
+      <c r="H81">
+        <v>-3946.86</v>
+      </c>
+      <c r="I81">
+        <v>18.3433466560607</v>
+      </c>
+      <c r="J81">
+        <v>2307.603302143398</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>-0.03</v>
+      </c>
+      <c r="M81" t="s">
+        <v>14</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>3679</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43619.29166666666</v>
+      </c>
+      <c r="D82">
+        <v>21.4</v>
+      </c>
+      <c r="E82">
+        <v>953.84</v>
+      </c>
+      <c r="F82">
+        <v>344</v>
+      </c>
+      <c r="G82">
+        <v>21.4</v>
+      </c>
+      <c r="H82">
+        <v>-9218.48</v>
+      </c>
+      <c r="I82">
+        <v>16.75982601226156</v>
+      </c>
+      <c r="J82">
+        <v>2287.810221844411</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>-0.24</v>
+      </c>
+      <c r="M82" t="s">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>3680</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43619.33333333334</v>
+      </c>
+      <c r="D83">
+        <v>23.5</v>
+      </c>
+      <c r="E83">
+        <v>1539.47</v>
+      </c>
+      <c r="F83">
+        <v>562</v>
+      </c>
+      <c r="G83">
+        <v>23.5</v>
+      </c>
+      <c r="H83">
+        <v>-14872.04</v>
+      </c>
+      <c r="I83">
+        <v>14.64341052452414</v>
+      </c>
+      <c r="J83">
+        <v>2260.033715914818</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>-0.46</v>
+      </c>
+      <c r="M83" t="s">
+        <v>14</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>3681</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43619.375</v>
+      </c>
+      <c r="D84">
+        <v>24.6</v>
+      </c>
+      <c r="E84">
+        <v>1974.14</v>
+      </c>
+      <c r="F84">
+        <v>742</v>
+      </c>
+      <c r="G84">
+        <v>24.6</v>
+      </c>
+      <c r="H84">
+        <v>-19051.34</v>
+      </c>
+      <c r="I84">
+        <v>12.78886563336027</v>
+      </c>
+      <c r="J84">
+        <v>2234.86251092219</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>-0.62</v>
+      </c>
+      <c r="M84" t="s">
+        <v>14</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>3682</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43619.41666666666</v>
+      </c>
+      <c r="D85">
+        <v>25.8</v>
+      </c>
+      <c r="E85">
+        <v>2198.71</v>
+      </c>
+      <c r="F85">
+        <v>837</v>
+      </c>
+      <c r="G85">
+        <v>25.8</v>
+      </c>
+      <c r="H85">
+        <v>-21208.69</v>
+      </c>
+      <c r="I85">
+        <v>12.49151893015818</v>
+      </c>
+      <c r="J85">
+        <v>2232.198044825287</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="M85" t="s">
+        <v>14</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3683</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43619.45833333334</v>
+      </c>
+      <c r="D86">
+        <v>25.5</v>
+      </c>
+      <c r="E86">
+        <v>2195.02</v>
+      </c>
+      <c r="F86">
+        <v>822</v>
+      </c>
+      <c r="G86">
+        <v>25.5</v>
+      </c>
+      <c r="H86">
+        <v>-21185.74</v>
+      </c>
+      <c r="I86">
+        <v>12.07243853790544</v>
+      </c>
+      <c r="J86">
+        <v>2225.807418423239</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>-0.7</v>
+      </c>
+      <c r="M86" t="s">
+        <v>14</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>3684</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43619.5</v>
+      </c>
+      <c r="D87">
+        <v>22.9</v>
+      </c>
+      <c r="E87">
+        <v>1951.23</v>
+      </c>
+      <c r="F87">
+        <v>700</v>
+      </c>
+      <c r="G87">
+        <v>22.9</v>
+      </c>
+      <c r="H87">
+        <v>-18861.3</v>
+      </c>
+      <c r="I87">
+        <v>10.88201793750102</v>
+      </c>
+      <c r="J87">
+        <v>2205.399231527175</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>-0.63</v>
+      </c>
+      <c r="M87" t="s">
+        <v>14</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>3685</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43619.54166666666</v>
+      </c>
+      <c r="D88">
+        <v>23.1</v>
+      </c>
+      <c r="E88">
+        <v>1409.53</v>
+      </c>
+      <c r="F88">
+        <v>506</v>
+      </c>
+      <c r="G88">
+        <v>23.1</v>
+      </c>
+      <c r="H88">
+        <v>-13624.72</v>
+      </c>
+      <c r="I88">
+        <v>15.10199359037625</v>
+      </c>
+      <c r="J88">
+        <v>2266.110068250855</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>-0.42</v>
+      </c>
+      <c r="M88" t="s">
+        <v>14</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>3686</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43619.58333333334</v>
+      </c>
+      <c r="D89">
+        <v>23</v>
+      </c>
+      <c r="E89">
+        <v>811.48</v>
+      </c>
+      <c r="F89">
+        <v>293</v>
+      </c>
+      <c r="G89">
+        <v>23</v>
+      </c>
+      <c r="H89">
+        <v>-7842.31</v>
+      </c>
+      <c r="I89">
+        <v>19.43792064414623</v>
+      </c>
+      <c r="J89">
+        <v>2328.945383740473</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>-0.19</v>
+      </c>
+      <c r="M89" t="s">
+        <v>14</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>3687</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43619.625</v>
+      </c>
+      <c r="D90">
+        <v>22.3</v>
+      </c>
+      <c r="E90">
+        <v>324.48</v>
+      </c>
+      <c r="F90">
+        <v>119</v>
+      </c>
+      <c r="G90">
+        <v>22.3</v>
+      </c>
+      <c r="H90">
+        <v>-3134.13</v>
+      </c>
+      <c r="I90">
+        <v>22.32719587126121</v>
+      </c>
+      <c r="J90">
+        <v>2370.440918947163</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>14</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>3688</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43619.66666666666</v>
+      </c>
+      <c r="D91">
+        <v>21.2</v>
+      </c>
+      <c r="E91">
+        <v>86.61</v>
+      </c>
+      <c r="F91">
+        <v>33</v>
+      </c>
+      <c r="G91">
+        <v>21.2</v>
+      </c>
+      <c r="H91">
+        <v>-835.41</v>
+      </c>
+      <c r="I91">
+        <v>22.95524882416419</v>
+      </c>
+      <c r="J91">
+        <v>2378.224121582287</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>0.09</v>
+      </c>
+      <c r="M91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>3689</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43619.70833333334</v>
+      </c>
+      <c r="D92">
+        <v>21.7</v>
+      </c>
+      <c r="E92">
+        <v>16.58</v>
+      </c>
+      <c r="F92">
+        <v>6</v>
+      </c>
+      <c r="G92">
+        <v>21.7</v>
+      </c>
+      <c r="H92">
+        <v>-160.22</v>
+      </c>
+      <c r="I92">
+        <v>23.95979199559088</v>
+      </c>
+      <c r="J92">
+        <v>2393.776009330177</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <v>0.12</v>
+      </c>
+      <c r="M92" t="s">
+        <v>14</v>
+      </c>
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>3690</v>
+      </c>
+      <c r="C93" s="2">
+        <v>43619.75</v>
+      </c>
+      <c r="D93">
+        <v>21.3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>21.3</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>21.3</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>14</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>3691</v>
+      </c>
+      <c r="C94" s="2">
+        <v>43619.79166666666</v>
+      </c>
+      <c r="D94">
+        <v>18.5</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>18.5</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>18.5</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>14</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>3692</v>
+      </c>
+      <c r="C95" s="2">
+        <v>43619.83333333334</v>
+      </c>
+      <c r="D95">
+        <v>17.4</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>17.4</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>17.4</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>14</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>3693</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43619.875</v>
+      </c>
+      <c r="D96">
+        <v>16.8</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>16.8</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>16.8</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>14</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3694</v>
+      </c>
+      <c r="C97" s="2">
+        <v>43619.91666666666</v>
+      </c>
+      <c r="D97">
+        <v>16.8</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>16.8</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>16.8</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>3695</v>
+      </c>
+      <c r="C98" s="2">
+        <v>43619.95833333334</v>
+      </c>
+      <c r="D98">
+        <v>17</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>17</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>17</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>14</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>3696</v>
+      </c>
+      <c r="C99" s="2">
+        <v>43620</v>
+      </c>
+      <c r="D99">
+        <v>17</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>17</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>17</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>3697</v>
+      </c>
+      <c r="C100" s="2">
+        <v>43620.04166666666</v>
+      </c>
+      <c r="D100">
+        <v>16.4</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>16.4</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>16.4</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>14</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>3698</v>
+      </c>
+      <c r="C101" s="2">
+        <v>43620.08333333334</v>
+      </c>
+      <c r="D101">
+        <v>15.9</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>15.9</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>15.9</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>14</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>3699</v>
+      </c>
+      <c r="C102" s="2">
+        <v>43620.125</v>
+      </c>
+      <c r="D102">
+        <v>15.8</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>15.8</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>15.8</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>14</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>3700</v>
+      </c>
+      <c r="C103" s="2">
+        <v>43620.16666666666</v>
+      </c>
+      <c r="D103">
+        <v>14.7</v>
+      </c>
+      <c r="E103">
+        <v>158.37</v>
+      </c>
+      <c r="F103">
+        <v>58</v>
+      </c>
+      <c r="G103">
+        <v>14.7</v>
+      </c>
+      <c r="H103">
+        <v>-1529.76</v>
+      </c>
+      <c r="I103">
+        <v>15.81488516944489</v>
+      </c>
+      <c r="J103">
+        <v>2265.234334622801</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>0.06</v>
+      </c>
+      <c r="M103" t="s">
+        <v>14</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3701</v>
+      </c>
+      <c r="C104" s="2">
+        <v>43620.20833333334</v>
+      </c>
+      <c r="D104">
+        <v>14.7</v>
+      </c>
+      <c r="E104">
+        <v>210.51</v>
+      </c>
+      <c r="F104">
+        <v>76</v>
+      </c>
+      <c r="G104">
+        <v>14.7</v>
+      </c>
+      <c r="H104">
+        <v>-2034.42</v>
+      </c>
+      <c r="I104">
+        <v>15.42355184371985</v>
+      </c>
+      <c r="J104">
+        <v>2259.592289487598</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>0.04</v>
+      </c>
+      <c r="M104" t="s">
+        <v>14</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3702</v>
+      </c>
+      <c r="C105" s="2">
+        <v>43620.25</v>
+      </c>
+      <c r="D105">
+        <v>15.7</v>
+      </c>
+      <c r="E105">
+        <v>410.92</v>
+      </c>
+      <c r="F105">
+        <v>147</v>
+      </c>
+      <c r="G105">
+        <v>15.7</v>
+      </c>
+      <c r="H105">
+        <v>-3972.49</v>
+      </c>
+      <c r="I105">
+        <v>14.95315344827299</v>
+      </c>
+      <c r="J105">
+        <v>2254.141771585506</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>-0.04</v>
+      </c>
+      <c r="M105" t="s">
+        <v>14</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3703</v>
+      </c>
+      <c r="C106" s="2">
+        <v>43620.29166666666</v>
+      </c>
+      <c r="D106">
+        <v>17.6</v>
+      </c>
+      <c r="E106">
+        <v>953.02</v>
+      </c>
+      <c r="F106">
+        <v>343</v>
+      </c>
+      <c r="G106">
+        <v>17.6</v>
+      </c>
+      <c r="H106">
+        <v>-9211.209999999999</v>
+      </c>
+      <c r="I106">
+        <v>12.8980733267789</v>
+      </c>
+      <c r="J106">
+        <v>2227.169600270572</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>-0.24</v>
+      </c>
+      <c r="M106" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3704</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43620.33333333334</v>
+      </c>
+      <c r="D107">
+        <v>18.5</v>
+      </c>
+      <c r="E107">
+        <v>1550.03</v>
+      </c>
+      <c r="F107">
+        <v>561</v>
+      </c>
+      <c r="G107">
+        <v>18.5</v>
+      </c>
+      <c r="H107">
+        <v>-14978.57</v>
+      </c>
+      <c r="I107">
+        <v>9.436339377149238</v>
+      </c>
+      <c r="J107">
+        <v>2179.118419729988</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>-0.47</v>
+      </c>
+      <c r="M107" t="s">
+        <v>14</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3705</v>
+      </c>
+      <c r="C108" s="2">
+        <v>43620.375</v>
+      </c>
+      <c r="D108">
+        <v>20.2</v>
+      </c>
+      <c r="E108">
+        <v>2039.06</v>
+      </c>
+      <c r="F108">
+        <v>741</v>
+      </c>
+      <c r="G108">
+        <v>20.2</v>
+      </c>
+      <c r="H108">
+        <v>-19701.47</v>
+      </c>
+      <c r="I108">
+        <v>7.586185357329555</v>
+      </c>
+      <c r="J108">
+        <v>2155.244149778795</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>-0.66</v>
+      </c>
+      <c r="M108" t="s">
+        <v>14</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3706</v>
+      </c>
+      <c r="C109" s="2">
+        <v>43620.41666666666</v>
+      </c>
+      <c r="D109">
+        <v>21.8</v>
+      </c>
+      <c r="E109">
+        <v>2265.26</v>
+      </c>
+      <c r="F109">
+        <v>836</v>
+      </c>
+      <c r="G109">
+        <v>21.8</v>
+      </c>
+      <c r="H109">
+        <v>-21875.12</v>
+      </c>
+      <c r="I109">
+        <v>7.676294594606986</v>
+      </c>
+      <c r="J109">
+        <v>2158.598333953938</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>-0.74</v>
+      </c>
+      <c r="M109" t="s">
+        <v>14</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3707</v>
+      </c>
+      <c r="C110" s="2">
+        <v>43620.45833333334</v>
+      </c>
+      <c r="D110">
+        <v>22.8</v>
+      </c>
+      <c r="E110">
+        <v>2223.32</v>
+      </c>
+      <c r="F110">
+        <v>821</v>
+      </c>
+      <c r="G110">
+        <v>22.8</v>
+      </c>
+      <c r="H110">
+        <v>-21469.67</v>
+      </c>
+      <c r="I110">
+        <v>9.003881540065834</v>
+      </c>
+      <c r="J110">
+        <v>2178.632657392183</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>-0.72</v>
+      </c>
+      <c r="M110" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3708</v>
+      </c>
+      <c r="C111" s="2">
+        <v>43620.5</v>
+      </c>
+      <c r="D111">
+        <v>24.7</v>
+      </c>
+      <c r="E111">
+        <v>1904.76</v>
+      </c>
+      <c r="F111">
+        <v>700</v>
+      </c>
+      <c r="G111">
+        <v>24.7</v>
+      </c>
+      <c r="H111">
+        <v>-18396.6</v>
+      </c>
+      <c r="I111">
+        <v>13.22786570141102</v>
+      </c>
+      <c r="J111">
+        <v>2241.286187761172</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>-0.6</v>
+      </c>
+      <c r="M111" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3709</v>
+      </c>
+      <c r="C112" s="2">
+        <v>43620.54166666666</v>
+      </c>
+      <c r="D112">
+        <v>25.8</v>
+      </c>
+      <c r="E112">
+        <v>1391.83</v>
+      </c>
+      <c r="F112">
+        <v>506</v>
+      </c>
+      <c r="G112">
+        <v>25.8</v>
+      </c>
+      <c r="H112">
+        <v>-13447.72</v>
+      </c>
+      <c r="I112">
+        <v>18.04211097541167</v>
+      </c>
+      <c r="J112">
+        <v>2312.34318664117</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>-0.4</v>
+      </c>
+      <c r="M112" t="s">
+        <v>14</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3710</v>
+      </c>
+      <c r="C113" s="2">
+        <v>43620.58333333334</v>
+      </c>
+      <c r="D113">
+        <v>26.7</v>
+      </c>
+      <c r="E113">
+        <v>803.04</v>
+      </c>
+      <c r="F113">
+        <v>293</v>
+      </c>
+      <c r="G113">
+        <v>26.7</v>
+      </c>
+      <c r="H113">
+        <v>-7757.91</v>
+      </c>
+      <c r="I113">
+        <v>23.29165820169152</v>
+      </c>
+      <c r="J113">
+        <v>2390.687192096608</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>-0.18</v>
+      </c>
+      <c r="M113" t="s">
+        <v>14</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3711</v>
+      </c>
+      <c r="C114" s="2">
+        <v>43620.625</v>
+      </c>
+      <c r="D114">
+        <v>28.9</v>
+      </c>
+      <c r="E114">
+        <v>317.34</v>
+      </c>
+      <c r="F114">
+        <v>120</v>
+      </c>
+      <c r="G114">
+        <v>28.9</v>
+      </c>
+      <c r="H114">
+        <v>-3061.8</v>
+      </c>
+      <c r="I114">
+        <v>29.12475905477385</v>
+      </c>
+      <c r="J114">
+        <v>2480.947424487735</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>0.01</v>
+      </c>
+      <c r="M114" t="s">
+        <v>14</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3712</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43620.66666666666</v>
+      </c>
+      <c r="D115">
+        <v>28.9</v>
+      </c>
+      <c r="E115">
+        <v>84.11</v>
+      </c>
+      <c r="F115">
+        <v>33</v>
+      </c>
+      <c r="G115">
+        <v>28.9</v>
+      </c>
+      <c r="H115">
+        <v>-810.41</v>
+      </c>
+      <c r="I115">
+        <v>30.80931040195452</v>
+      </c>
+      <c r="J115">
+        <v>2506.440654506674</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>0.1</v>
+      </c>
+      <c r="M115" t="s">
+        <v>14</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3713</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43620.70833333334</v>
+      </c>
+      <c r="D116">
+        <v>28.3</v>
+      </c>
+      <c r="E116">
+        <v>16.96</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <v>28.3</v>
+      </c>
+      <c r="H116">
+        <v>-163.09</v>
+      </c>
+      <c r="I116">
+        <v>30.67429725566865</v>
+      </c>
+      <c r="J116">
+        <v>2503.557172041154</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>0.12</v>
+      </c>
+      <c r="M116" t="s">
+        <v>14</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3714</v>
+      </c>
+      <c r="C117" s="2">
+        <v>43620.75</v>
+      </c>
+      <c r="D117">
+        <v>27.8</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>27.8</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>27.8</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
+        <v>14</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3715</v>
+      </c>
+      <c r="C118" s="2">
+        <v>43620.79166666666</v>
+      </c>
+      <c r="D118">
+        <v>26.7</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>26.7</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>26.7</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
+        <v>14</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3716</v>
+      </c>
+      <c r="C119" s="2">
+        <v>43620.83333333334</v>
+      </c>
+      <c r="D119">
+        <v>26.3</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>26.3</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>26.3</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
+        <v>14</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3717</v>
+      </c>
+      <c r="C120" s="2">
+        <v>43620.875</v>
+      </c>
+      <c r="D120">
+        <v>24.7</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>24.7</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>24.7</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" t="s">
+        <v>14</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3718</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43620.91666666666</v>
+      </c>
+      <c r="D121">
+        <v>22.2</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>22.2</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>22.2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
+        <v>14</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>3719</v>
+      </c>
+      <c r="C122" s="2">
+        <v>43620.95833333334</v>
+      </c>
+      <c r="D122">
+        <v>20.2</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>20.2</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>20.2</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" t="s">
+        <v>14</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>3720</v>
+      </c>
+      <c r="C123" s="2">
+        <v>43621</v>
+      </c>
+      <c r="D123">
+        <v>17.8</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>17.8</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>17.8</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
+        <v>14</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>3721</v>
+      </c>
+      <c r="C124" s="2">
+        <v>43621.04166666666</v>
+      </c>
+      <c r="D124">
+        <v>17.2</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>17.2</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>17.2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
+        <v>14</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>3722</v>
+      </c>
+      <c r="C125" s="2">
+        <v>43621.08333333334</v>
+      </c>
+      <c r="D125">
+        <v>17.8</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>17.8</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>17.8</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
+        <v>14</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>3723</v>
+      </c>
+      <c r="C126" s="2">
+        <v>43621.125</v>
+      </c>
+      <c r="D126">
+        <v>17.7</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>17.7</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>17.7</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" t="s">
+        <v>14</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>3724</v>
+      </c>
+      <c r="C127" s="2">
+        <v>43621.16666666666</v>
+      </c>
+      <c r="D127">
+        <v>17.6</v>
+      </c>
+      <c r="E127">
+        <v>156.42</v>
+      </c>
+      <c r="F127">
+        <v>58</v>
+      </c>
+      <c r="G127">
+        <v>17.6</v>
+      </c>
+      <c r="H127">
+        <v>-1510.26</v>
+      </c>
+      <c r="I127">
+        <v>18.78261348649681</v>
+      </c>
+      <c r="J127">
+        <v>2312.128504165215</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0.06</v>
+      </c>
+      <c r="M127" t="s">
+        <v>14</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>3725</v>
+      </c>
+      <c r="C128" s="2">
+        <v>43621.20833333334</v>
+      </c>
+      <c r="D128">
+        <v>18.2</v>
+      </c>
+      <c r="E128">
+        <v>207.9</v>
+      </c>
+      <c r="F128">
+        <v>76</v>
+      </c>
+      <c r="G128">
+        <v>18.2</v>
+      </c>
+      <c r="H128">
+        <v>-2008.32</v>
+      </c>
+      <c r="I128">
+        <v>19.00815121891668</v>
+      </c>
+      <c r="J128">
+        <v>2316.220310350996</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>0.04</v>
+      </c>
+      <c r="M128" t="s">
+        <v>14</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>3726</v>
+      </c>
+      <c r="C129" s="2">
+        <v>43621.25</v>
+      </c>
+      <c r="D129">
+        <v>19.4</v>
+      </c>
+      <c r="E129">
+        <v>405.14</v>
+      </c>
+      <c r="F129">
+        <v>147</v>
+      </c>
+      <c r="G129">
+        <v>19.4</v>
+      </c>
+      <c r="H129">
+        <v>-3914.69</v>
+      </c>
+      <c r="I129">
+        <v>18.77609554989886</v>
+      </c>
+      <c r="J129">
+        <v>2314.444009652885</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>-0.03</v>
+      </c>
+      <c r="M129" t="s">
+        <v>14</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3727</v>
+      </c>
+      <c r="C130" s="2">
+        <v>43621.29166666666</v>
+      </c>
+      <c r="D130">
+        <v>20.7</v>
+      </c>
+      <c r="E130">
+        <v>943.86</v>
+      </c>
+      <c r="F130">
+        <v>342</v>
+      </c>
+      <c r="G130">
+        <v>20.7</v>
+      </c>
+      <c r="H130">
+        <v>-9120.540000000001</v>
+      </c>
+      <c r="I130">
+        <v>16.13864296393507</v>
+      </c>
+      <c r="J130">
+        <v>2277.882756465988</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>-0.24</v>
+      </c>
+      <c r="M130" t="s">
+        <v>14</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3728</v>
+      </c>
+      <c r="C131" s="2">
+        <v>43621.33333333334</v>
+      </c>
+      <c r="D131">
+        <v>21.5</v>
+      </c>
+      <c r="E131">
+        <v>1533.01</v>
+      </c>
+      <c r="F131">
+        <v>560</v>
+      </c>
+      <c r="G131">
+        <v>21.5</v>
+      </c>
+      <c r="H131">
+        <v>-14809.3</v>
+      </c>
+      <c r="I131">
+        <v>12.66257749222399</v>
+      </c>
+      <c r="J131">
+        <v>2228.949826729018</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>-0.46</v>
+      </c>
+      <c r="M131" t="s">
+        <v>14</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>3729</v>
+      </c>
+      <c r="C132" s="2">
+        <v>43621.375</v>
+      </c>
+      <c r="D132">
+        <v>22.1</v>
+      </c>
+      <c r="E132">
+        <v>2000.31</v>
+      </c>
+      <c r="F132">
+        <v>740</v>
+      </c>
+      <c r="G132">
+        <v>22.1</v>
+      </c>
+      <c r="H132">
+        <v>-19314.9</v>
+      </c>
+      <c r="I132">
+        <v>9.937107094182011</v>
+      </c>
+      <c r="J132">
+        <v>2190.927021192503</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>-0.63</v>
+      </c>
+      <c r="M132" t="s">
+        <v>14</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>3730</v>
+      </c>
+      <c r="C133" s="2">
+        <v>43621.41666666666</v>
+      </c>
+      <c r="D133">
+        <v>22.8</v>
+      </c>
+      <c r="E133">
+        <v>2222.06</v>
+      </c>
+      <c r="F133">
+        <v>835</v>
+      </c>
+      <c r="G133">
+        <v>22.8</v>
+      </c>
+      <c r="H133">
+        <v>-21444.05</v>
+      </c>
+      <c r="I133">
+        <v>9.1629390062688</v>
+      </c>
+      <c r="J133">
+        <v>2180.881989579357</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>-0.71</v>
+      </c>
+      <c r="M133" t="s">
+        <v>14</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3731</v>
+      </c>
+      <c r="C134" s="2">
+        <v>43621.45833333334</v>
+      </c>
+      <c r="D134">
+        <v>24.1</v>
+      </c>
+      <c r="E134">
+        <v>2167.05</v>
+      </c>
+      <c r="F134">
+        <v>821</v>
+      </c>
+      <c r="G134">
+        <v>24.1</v>
+      </c>
+      <c r="H134">
+        <v>-20906.97</v>
+      </c>
+      <c r="I134">
+        <v>10.95122775636139</v>
+      </c>
+      <c r="J134">
+        <v>2207.966349556693</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>-0.68</v>
+      </c>
+      <c r="M134" t="s">
+        <v>14</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>3732</v>
+      </c>
+      <c r="C135" s="2">
+        <v>43621.5</v>
+      </c>
+      <c r="D135">
+        <v>24.2</v>
+      </c>
+      <c r="E135">
+        <v>1884.87</v>
+      </c>
+      <c r="F135">
+        <v>700</v>
+      </c>
+      <c r="G135">
+        <v>24.2</v>
+      </c>
+      <c r="H135">
+        <v>-18197.7</v>
+      </c>
+      <c r="I135">
+        <v>12.94116305602324</v>
+      </c>
+      <c r="J135">
+        <v>2236.513224894123</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>-0.59</v>
+      </c>
+      <c r="M135" t="s">
+        <v>14</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3733</v>
+      </c>
+      <c r="C136" s="2">
+        <v>43621.54166666666</v>
+      </c>
+      <c r="D136">
+        <v>25.9</v>
+      </c>
+      <c r="E136">
+        <v>1364.29</v>
+      </c>
+      <c r="F136">
+        <v>507</v>
+      </c>
+      <c r="G136">
+        <v>25.9</v>
+      </c>
+      <c r="H136">
+        <v>-13171.39</v>
+      </c>
+      <c r="I136">
+        <v>18.45992436093661</v>
+      </c>
+      <c r="J136">
+        <v>2318.568685436505</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>-0.39</v>
+      </c>
+      <c r="M136" t="s">
+        <v>14</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>3734</v>
+      </c>
+      <c r="C137" s="2">
+        <v>43621.58333333334</v>
+      </c>
+      <c r="D137">
+        <v>26.8</v>
+      </c>
+      <c r="E137">
+        <v>792.0599999999999</v>
+      </c>
+      <c r="F137">
+        <v>294</v>
+      </c>
+      <c r="G137">
+        <v>26.8</v>
+      </c>
+      <c r="H137">
+        <v>-7647.18</v>
+      </c>
+      <c r="I137">
+        <v>23.5252945433146</v>
+      </c>
+      <c r="J137">
+        <v>2394.286420835881</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>-0.17</v>
+      </c>
+      <c r="M137" t="s">
+        <v>14</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3735</v>
+      </c>
+      <c r="C138" s="2">
+        <v>43621.625</v>
+      </c>
+      <c r="D138">
+        <v>28.2</v>
+      </c>
+      <c r="E138">
+        <v>317.94</v>
+      </c>
+      <c r="F138">
+        <v>121</v>
+      </c>
+      <c r="G138">
+        <v>28.2</v>
+      </c>
+      <c r="H138">
+        <v>-3066.87</v>
+      </c>
+      <c r="I138">
+        <v>28.41681157133507</v>
+      </c>
+      <c r="J138">
+        <v>2469.303853990103</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0.01</v>
+      </c>
+      <c r="M138" t="s">
+        <v>14</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>3736</v>
+      </c>
+      <c r="C139" s="2">
+        <v>43621.66666666666</v>
+      </c>
+      <c r="D139">
+        <v>28.8</v>
+      </c>
+      <c r="E139">
+        <v>84.55</v>
+      </c>
+      <c r="F139">
+        <v>33</v>
+      </c>
+      <c r="G139">
+        <v>28.8</v>
+      </c>
+      <c r="H139">
+        <v>-814.8099999999999</v>
+      </c>
+      <c r="I139">
+        <v>30.70278396123695</v>
+      </c>
+      <c r="J139">
+        <v>2504.685340648401</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0.1</v>
+      </c>
+      <c r="M139" t="s">
+        <v>14</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>3737</v>
+      </c>
+      <c r="C140" s="2">
+        <v>43621.70833333334</v>
+      </c>
+      <c r="D140">
+        <v>28.8</v>
+      </c>
+      <c r="E140">
+        <v>17.85</v>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>28.8</v>
+      </c>
+      <c r="H140">
+        <v>-171.99</v>
+      </c>
+      <c r="I140">
+        <v>31.17277034874365</v>
+      </c>
+      <c r="J140">
+        <v>2511.819015409797</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0.12</v>
+      </c>
+      <c r="M140" t="s">
+        <v>14</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3738</v>
+      </c>
+      <c r="C141" s="2">
+        <v>43621.75</v>
+      </c>
+      <c r="D141">
+        <v>27.2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>27.2</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>27.2</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" t="s">
+        <v>14</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>3739</v>
+      </c>
+      <c r="C142" s="2">
+        <v>43621.79166666666</v>
+      </c>
+      <c r="D142">
+        <v>25.5</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>25.5</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>25.5</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" t="s">
+        <v>14</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>3740</v>
+      </c>
+      <c r="C143" s="2">
+        <v>43621.83333333334</v>
+      </c>
+      <c r="D143">
+        <v>23.2</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>23.2</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>23.2</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143" t="s">
+        <v>14</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>3741</v>
+      </c>
+      <c r="C144" s="2">
+        <v>43621.875</v>
+      </c>
+      <c r="D144">
+        <v>19.5</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>19.5</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>19.5</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144" t="s">
+        <v>14</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>3742</v>
+      </c>
+      <c r="C145" s="2">
+        <v>43621.91666666666</v>
+      </c>
+      <c r="D145">
+        <v>20.7</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>20.7</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>20.7</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
+        <v>14</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>3743</v>
+      </c>
+      <c r="C146" s="2">
+        <v>43621.95833333334</v>
+      </c>
+      <c r="D146">
+        <v>20.3</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>20.3</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>20.3</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
+        <v>14</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3744</v>
+      </c>
+      <c r="C147" s="2">
+        <v>43622</v>
+      </c>
+      <c r="D147">
+        <v>16.3</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>16.3</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>16.3</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
+        <v>14</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>3745</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43622.04166666666</v>
+      </c>
+      <c r="D148">
+        <v>16</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>16</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>16</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
+        <v>14</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>3746</v>
+      </c>
+      <c r="C149" s="2">
+        <v>43622.08333333334</v>
+      </c>
+      <c r="D149">
+        <v>15.8</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>15.8</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>15.8</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
+        <v>14</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>3747</v>
+      </c>
+      <c r="C150" s="2">
+        <v>43622.125</v>
+      </c>
+      <c r="D150">
+        <v>15.8</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>15.8</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>15.8</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
+        <v>14</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>3748</v>
+      </c>
+      <c r="C151" s="2">
+        <v>43622.16666666666</v>
+      </c>
+      <c r="D151">
+        <v>12.3</v>
+      </c>
+      <c r="E151">
+        <v>160.86</v>
+      </c>
+      <c r="F151">
+        <v>58</v>
+      </c>
+      <c r="G151">
+        <v>12.3</v>
+      </c>
+      <c r="H151">
+        <v>-1554.66</v>
+      </c>
+      <c r="I151">
+        <v>13.34949959188515</v>
+      </c>
+      <c r="J151">
+        <v>2226.654005889199</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>0.05</v>
+      </c>
+      <c r="M151" t="s">
+        <v>14</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>3749</v>
+      </c>
+      <c r="C152" s="2">
+        <v>43622.20833333334</v>
+      </c>
+      <c r="D152">
+        <v>11.8</v>
+      </c>
+      <c r="E152">
+        <v>214.08</v>
+      </c>
+      <c r="F152">
+        <v>76</v>
+      </c>
+      <c r="G152">
+        <v>11.8</v>
+      </c>
+      <c r="H152">
+        <v>-2070.12</v>
+      </c>
+      <c r="I152">
+        <v>12.43840953407857</v>
+      </c>
+      <c r="J152">
+        <v>2212.986581158882</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0.03</v>
+      </c>
+      <c r="M152" t="s">
+        <v>14</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3750</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43622.25</v>
+      </c>
+      <c r="D153">
+        <v>11.9</v>
+      </c>
+      <c r="E153">
+        <v>418.23</v>
+      </c>
+      <c r="F153">
+        <v>147</v>
+      </c>
+      <c r="G153">
+        <v>11.9</v>
+      </c>
+      <c r="H153">
+        <v>-4045.59</v>
+      </c>
+      <c r="I153">
+        <v>11.01249652906893</v>
+      </c>
+      <c r="J153">
+        <v>2192.831308134482</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>-0.05</v>
+      </c>
+      <c r="M153" t="s">
+        <v>14</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>3751</v>
+      </c>
+      <c r="C154" s="2">
+        <v>43622.29166666666</v>
+      </c>
+      <c r="D154">
+        <v>12.3</v>
+      </c>
+      <c r="E154">
+        <v>988.28</v>
+      </c>
+      <c r="F154">
+        <v>341</v>
+      </c>
+      <c r="G154">
+        <v>12.3</v>
+      </c>
+      <c r="H154">
+        <v>-9565.67</v>
+      </c>
+      <c r="I154">
+        <v>7.103536979652631</v>
+      </c>
+      <c r="J154">
+        <v>2138.220526947756</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>-0.27</v>
+      </c>
+      <c r="M154" t="s">
+        <v>14</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>3752</v>
+      </c>
+      <c r="C155" s="2">
+        <v>43622.33333333334</v>
+      </c>
+      <c r="D155">
+        <v>13</v>
+      </c>
+      <c r="E155">
+        <v>1602.98</v>
+      </c>
+      <c r="F155">
+        <v>559</v>
+      </c>
+      <c r="G155">
+        <v>13</v>
+      </c>
+      <c r="H155">
+        <v>-15509.93</v>
+      </c>
+      <c r="I155">
+        <v>3.241791852845779</v>
+      </c>
+      <c r="J155">
+        <v>2085.345645160647</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>-0.51</v>
+      </c>
+      <c r="M155" t="s">
+        <v>14</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>3753</v>
+      </c>
+      <c r="C156" s="2">
+        <v>43622.375</v>
+      </c>
+      <c r="D156">
+        <v>14.5</v>
+      </c>
+      <c r="E156">
+        <v>2098.44</v>
+      </c>
+      <c r="F156">
+        <v>738</v>
+      </c>
+      <c r="G156">
+        <v>14.5</v>
+      </c>
+      <c r="H156">
+        <v>-20298.06</v>
+      </c>
+      <c r="I156">
+        <v>1.105672461151016</v>
+      </c>
+      <c r="J156">
+        <v>2057.803570294345</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>-0.7</v>
+      </c>
+      <c r="M156" t="s">
+        <v>14</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>3754</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43622.41666666666</v>
+      </c>
+      <c r="D157">
+        <v>15.6</v>
+      </c>
+      <c r="E157">
+        <v>2359.28</v>
+      </c>
+      <c r="F157">
+        <v>834</v>
+      </c>
+      <c r="G157">
+        <v>15.6</v>
+      </c>
+      <c r="H157">
+        <v>-22817.18</v>
+      </c>
+      <c r="I157">
+        <v>0.3116818369221619</v>
+      </c>
+      <c r="J157">
+        <v>2048.3048847717</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>-0.8</v>
+      </c>
+      <c r="M157" t="s">
+        <v>14</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>3755</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43622.45833333334</v>
+      </c>
+      <c r="D158">
+        <v>15.6</v>
+      </c>
+      <c r="E158">
+        <v>2318.11</v>
+      </c>
+      <c r="F158">
+        <v>820</v>
+      </c>
+      <c r="G158">
+        <v>15.6</v>
+      </c>
+      <c r="H158">
+        <v>-22418.5</v>
+      </c>
+      <c r="I158">
+        <v>0.6253470267429861</v>
+      </c>
+      <c r="J158">
+        <v>2052.607463550055</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>-0.78</v>
+      </c>
+      <c r="M158" t="s">
+        <v>14</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>3756</v>
+      </c>
+      <c r="C159" s="2">
+        <v>43622.5</v>
+      </c>
+      <c r="D159">
+        <v>16.6</v>
+      </c>
+      <c r="E159">
+        <v>1968.28</v>
+      </c>
+      <c r="F159">
+        <v>700</v>
+      </c>
+      <c r="G159">
+        <v>16.6</v>
+      </c>
+      <c r="H159">
+        <v>-19031.8</v>
+      </c>
+      <c r="I159">
+        <v>4.293398988968875</v>
+      </c>
+      <c r="J159">
+        <v>2104.547370519955</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>-0.64</v>
+      </c>
+      <c r="M159" t="s">
+        <v>14</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>3757</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43622.54166666666</v>
+      </c>
+      <c r="D160">
+        <v>16.6</v>
+      </c>
+      <c r="E160">
+        <v>1431.46</v>
+      </c>
+      <c r="F160">
+        <v>507</v>
+      </c>
+      <c r="G160">
+        <v>16.6</v>
+      </c>
+      <c r="H160">
+        <v>-13843.09</v>
+      </c>
+      <c r="I160">
+        <v>8.265809660585887</v>
+      </c>
+      <c r="J160">
+        <v>2160.121468779922</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>-0.43</v>
+      </c>
+      <c r="M160" t="s">
+        <v>14</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3758</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43622.58333333334</v>
+      </c>
+      <c r="D161">
+        <v>17.7</v>
+      </c>
+      <c r="E161">
+        <v>827.8200000000001</v>
+      </c>
+      <c r="F161">
+        <v>295</v>
+      </c>
+      <c r="G161">
+        <v>17.7</v>
+      </c>
+      <c r="H161">
+        <v>-8003.85</v>
+      </c>
+      <c r="I161">
+        <v>13.89260376605091</v>
+      </c>
+      <c r="J161">
+        <v>2241.547329083493</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>-0.2</v>
+      </c>
+      <c r="M161" t="s">
+        <v>14</v>
+      </c>
+      <c r="N161">
+        <v>1</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>3759</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43622.625</v>
+      </c>
+      <c r="D162">
+        <v>16.7</v>
+      </c>
+      <c r="E162">
+        <v>336.75</v>
+      </c>
+      <c r="F162">
+        <v>121</v>
+      </c>
+      <c r="G162">
+        <v>16.7</v>
+      </c>
+      <c r="H162">
+        <v>-3254.97</v>
+      </c>
+      <c r="I162">
+        <v>16.52205951933587</v>
+      </c>
+      <c r="J162">
+        <v>2278.104033068754</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>-0.01</v>
+      </c>
+      <c r="M162" t="s">
+        <v>14</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3760</v>
+      </c>
+      <c r="C163" s="2">
+        <v>43622.66666666666</v>
+      </c>
+      <c r="D163">
+        <v>17.7</v>
+      </c>
+      <c r="E163">
+        <v>89.92</v>
+      </c>
+      <c r="F163">
+        <v>34</v>
+      </c>
+      <c r="G163">
+        <v>17.7</v>
+      </c>
+      <c r="H163">
+        <v>-867.58</v>
+      </c>
+      <c r="I163">
+        <v>19.3725388291665</v>
+      </c>
+      <c r="J163">
+        <v>2320.868517427531</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>0.09</v>
+      </c>
+      <c r="M163" t="s">
+        <v>14</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3761</v>
+      </c>
+      <c r="C164" s="2">
+        <v>43622.70833333334</v>
+      </c>
+      <c r="D164">
+        <v>17.7</v>
+      </c>
+      <c r="E164">
+        <v>19.94</v>
+      </c>
+      <c r="F164">
+        <v>8</v>
+      </c>
+      <c r="G164">
+        <v>17.7</v>
+      </c>
+      <c r="H164">
+        <v>-191.96</v>
+      </c>
+      <c r="I164">
+        <v>19.87864460577214</v>
+      </c>
+      <c r="J164">
+        <v>2328.264823546517</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0.11</v>
+      </c>
+      <c r="M164" t="s">
+        <v>14</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>3762</v>
+      </c>
+      <c r="C165" s="2">
+        <v>43622.75</v>
+      </c>
+      <c r="D165">
+        <v>17.9</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>17.9</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>17.9</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
+        <v>14</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3763</v>
+      </c>
+      <c r="C166" s="2">
+        <v>43622.79166666666</v>
+      </c>
+      <c r="D166">
+        <v>16.9</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>16.9</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>16.9</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166" t="s">
+        <v>14</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>3764</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43622.83333333334</v>
+      </c>
+      <c r="D167">
+        <v>14.6</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>14.6</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>14.6</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167" t="s">
+        <v>14</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3765</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43622.875</v>
+      </c>
+      <c r="D168">
+        <v>13.6</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>13.6</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>13.6</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168" t="s">
+        <v>14</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3766</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43622.91666666666</v>
+      </c>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>13</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>13</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
+        <v>14</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>618660</v>
+      </c>
+      <c r="D170">
+        <v>3395.3</v>
+      </c>
+      <c r="E170">
+        <v>100126.21</v>
+      </c>
+      <c r="F170">
+        <v>36716</v>
+      </c>
+      <c r="G170">
+        <v>3395.3</v>
+      </c>
+      <c r="H170">
+        <v>-967116.22</v>
+      </c>
+      <c r="I170">
+        <v>2897.084700303309</v>
+      </c>
+      <c r="J170">
+        <v>223795.3754951939</v>
+      </c>
+      <c r="K170">
+        <v>98</v>
+      </c>
+      <c r="L170">
+        <v>-25.97</v>
       </c>
     </row>
   </sheetData>

--- a/Result2.xlsx
+++ b/Result2.xlsx
@@ -731,10 +731,10 @@
         <v>-1535.46</v>
       </c>
       <c r="I7">
-        <v>12.56548498702659</v>
+        <v>12.64229857887409</v>
       </c>
       <c r="J7">
-        <v>346.8168187205447</v>
+        <v>424.0645051171305</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -778,10 +778,10 @@
         <v>-2043.02</v>
       </c>
       <c r="I8">
-        <v>13.46701097748348</v>
+        <v>13.54425649208378</v>
       </c>
       <c r="J8">
-        <v>349.3527206449071</v>
+        <v>427.0367607668159</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>-4024.13</v>
       </c>
       <c r="I9">
-        <v>12.82581281949786</v>
+        <v>12.90283421911607</v>
       </c>
       <c r="J9">
-        <v>348.2226749487454</v>
+        <v>425.679972893442</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -872,10 +872,10 @@
         <v>-9381.219999999999</v>
       </c>
       <c r="I10">
-        <v>9.946243043082802</v>
+        <v>10.02213646062785</v>
       </c>
       <c r="J10">
-        <v>342.1673006082419</v>
+        <v>418.4844394223182</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -919,16 +919,16 @@
         <v>-15207.05</v>
       </c>
       <c r="I11">
-        <v>7.739813969716693</v>
+        <v>7.814905842072221</v>
       </c>
       <c r="J11">
-        <v>338.0424606020097</v>
+        <v>413.5495513629867</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -966,10 +966,10 @@
         <v>-19977.25</v>
       </c>
       <c r="I12">
-        <v>4.646183451954698</v>
+        <v>4.720039276989496</v>
       </c>
       <c r="J12">
-        <v>331.3571483810665</v>
+        <v>405.6161706309649</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1013,16 +1013,16 @@
         <v>-22074.3</v>
       </c>
       <c r="I13">
-        <v>4.373801754966678</v>
+        <v>4.447600240494012</v>
       </c>
       <c r="J13">
-        <v>331.1864415924065</v>
+        <v>405.3874210846261</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>-0.87</v>
+        <v>-0.86</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -1060,10 +1060,10 @@
         <v>-21514.61</v>
       </c>
       <c r="I14">
-        <v>5.950219509938051</v>
+        <v>6.024709677282374</v>
       </c>
       <c r="J14">
-        <v>335.0938181970851</v>
+        <v>409.9928754381835</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>-18328.9</v>
       </c>
       <c r="I15">
-        <v>8.894816166050248</v>
+        <v>8.970534950968045</v>
       </c>
       <c r="J15">
-        <v>341.8864045254886</v>
+        <v>418.0261246481678</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1154,16 +1154,16 @@
         <v>-13366.38</v>
       </c>
       <c r="I16">
-        <v>13.55630634593979</v>
+        <v>13.63399070154856</v>
       </c>
       <c r="J16">
-        <v>352.8297460820177</v>
+        <v>430.955611450132</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>-0.52</v>
+        <v>-0.51</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -1201,10 +1201,10 @@
         <v>-7728.6</v>
       </c>
       <c r="I17">
-        <v>18.10148244888603</v>
+        <v>18.18107045695064</v>
       </c>
       <c r="J17">
-        <v>363.4217285414925</v>
+        <v>443.4729390779976</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>-3055.19</v>
       </c>
       <c r="I18">
-        <v>21.33682779586923</v>
+        <v>21.41775615601443</v>
       </c>
       <c r="J18">
-        <v>370.856767464662</v>
+        <v>452.2647607442341</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1295,10 +1295,10 @@
         <v>-812.54</v>
       </c>
       <c r="I19">
-        <v>21.75752990244183</v>
+        <v>21.83857496830319</v>
       </c>
       <c r="J19">
-        <v>371.3517994699068</v>
+        <v>452.8783215518924</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1342,16 +1342,16 @@
         <v>-129.55</v>
       </c>
       <c r="I20">
-        <v>22.77326588652301</v>
+        <v>22.8547629095163</v>
       </c>
       <c r="J20">
-        <v>373.9449128773995</v>
+        <v>455.9289879004355</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -1621,16 +1621,16 @@
         <v>-139178.2</v>
       </c>
       <c r="I26">
-        <v>336.834799059377</v>
+        <v>337.9154709308411</v>
       </c>
       <c r="J26">
-        <v>4896.530742655974</v>
+        <v>5983.338442089327</v>
       </c>
       <c r="K26">
         <v>14</v>
       </c>
       <c r="L26">
-        <v>-5.319999999999999</v>
+        <v>-5.279999999999999</v>
       </c>
     </row>
   </sheetData>
